--- a/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado08\guion02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="7758"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -679,12 +679,6 @@
     <t>Ordena la secuencia de una noticia</t>
   </si>
   <si>
-    <t>La noticia radial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La noticia radial </t>
-  </si>
-  <si>
     <t>Recurso F4-03</t>
   </si>
   <si>
@@ -990,13 +984,31 @@
   </si>
   <si>
     <t>Más información</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La noticia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">radial </t>
+    </r>
+  </si>
+  <si>
+    <t>La noticia en vivo: vive una experiencia periodística</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1056,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1115,7 +1134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1204,9 +1223,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,6 +1237,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,127 +1534,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.59765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.46484375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.46484375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="21.46484375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="81.73046875" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.265625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" style="6"/>
-    <col min="10" max="10" width="47.265625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="17.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.73046875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="81.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="6"/>
+    <col min="10" max="10" width="47.28515625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="7" customWidth="1"/>
     <col min="13" max="13" width="14" style="7" customWidth="1"/>
-    <col min="14" max="14" width="15.1328125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="60" style="35" customWidth="1"/>
-    <col min="16" max="16" width="21.1328125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.86328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="35"/>
+    <col min="14" max="14" width="15.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="60" style="34" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+    <row r="2" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="33" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
@@ -1653,7 +1678,7 @@
       <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>175</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -1666,7 +1691,7 @@
         <v>84</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="37" t="s">
         <v>184</v>
       </c>
       <c r="P3" s="14" t="s">
@@ -1688,7 +1713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
@@ -1712,8 +1737,8 @@
       <c r="I4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>245</v>
+      <c r="J4" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>69</v>
@@ -1725,8 +1750,8 @@
         <v>24</v>
       </c>
       <c r="N4" s="14"/>
-      <c r="O4" s="38" t="s">
-        <v>296</v>
+      <c r="O4" s="37" t="s">
+        <v>294</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>19</v>
@@ -1747,7 +1772,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -1771,8 +1796,8 @@
       <c r="I5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="37" t="s">
-        <v>287</v>
+      <c r="J5" s="36" t="s">
+        <v>285</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>69</v>
@@ -1784,8 +1809,8 @@
       <c r="N5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="38" t="s">
-        <v>279</v>
+      <c r="O5" s="37" t="s">
+        <v>277</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>19</v>
@@ -1806,7 +1831,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -1821,7 +1846,7 @@
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="14">
@@ -1830,7 +1855,7 @@
       <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>181</v>
       </c>
       <c r="K6" s="14" t="s">
@@ -1843,7 +1868,7 @@
         <v>79</v>
       </c>
       <c r="N6" s="14"/>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="37" t="s">
         <v>189</v>
       </c>
       <c r="P6" s="14" t="s">
@@ -1865,7 +1890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
@@ -1880,8 +1905,8 @@
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="39" t="s">
-        <v>246</v>
+      <c r="G7" s="38" t="s">
+        <v>244</v>
       </c>
       <c r="H7" s="14">
         <v>5</v>
@@ -1889,7 +1914,7 @@
       <c r="I7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>182</v>
       </c>
       <c r="K7" s="14" t="s">
@@ -1902,8 +1927,8 @@
         <v>62</v>
       </c>
       <c r="N7" s="14"/>
-      <c r="O7" s="38" t="s">
-        <v>247</v>
+      <c r="O7" s="37" t="s">
+        <v>245</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>19</v>
@@ -1924,7 +1949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
@@ -1948,7 +1973,7 @@
       <c r="I8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>183</v>
       </c>
       <c r="K8" s="14" t="s">
@@ -1961,8 +1986,8 @@
         <v>80</v>
       </c>
       <c r="N8" s="14"/>
-      <c r="O8" s="38" t="s">
-        <v>260</v>
+      <c r="O8" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>19</v>
@@ -1983,7 +2008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -2001,7 +2026,7 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H9" s="14">
         <v>7</v>
@@ -2009,7 +2034,7 @@
       <c r="I9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="36" t="s">
         <v>190</v>
       </c>
       <c r="K9" s="14" t="s">
@@ -2022,8 +2047,8 @@
         <v>74</v>
       </c>
       <c r="N9" s="14"/>
-      <c r="O9" s="38" t="s">
-        <v>297</v>
+      <c r="O9" s="37" t="s">
+        <v>295</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>19</v>
@@ -2044,7 +2069,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
@@ -2072,7 +2097,7 @@
       <c r="I10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="14" t="s">
@@ -2085,8 +2110,8 @@
       <c r="N10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="38" t="s">
-        <v>261</v>
+      <c r="O10" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>19</v>
@@ -2107,7 +2132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -2135,8 +2160,8 @@
       <c r="I11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="37" t="s">
-        <v>209</v>
+      <c r="J11" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>69</v>
@@ -2148,8 +2173,8 @@
       <c r="N11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="38" t="s">
-        <v>261</v>
+      <c r="O11" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>19</v>
@@ -2170,7 +2195,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
@@ -2198,7 +2223,7 @@
       <c r="I12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="36" t="s">
         <v>192</v>
       </c>
       <c r="K12" s="14" t="s">
@@ -2211,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="37" t="s">
         <v>193</v>
       </c>
       <c r="P12" s="14" t="s">
@@ -2233,7 +2258,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
@@ -2246,7 +2271,7 @@
       <c r="D13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>195</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -2261,8 +2286,8 @@
       <c r="I13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="37" t="s">
-        <v>288</v>
+      <c r="J13" s="36" t="s">
+        <v>286</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>69</v>
@@ -2274,7 +2299,7 @@
         <v>60</v>
       </c>
       <c r="N13" s="14"/>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="37" t="s">
         <v>193</v>
       </c>
       <c r="P13" s="14" t="s">
@@ -2296,7 +2321,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
@@ -2309,7 +2334,7 @@
       <c r="D14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="37" t="s">
         <v>195</v>
       </c>
       <c r="F14" s="18" t="s">
@@ -2324,8 +2349,8 @@
       <c r="I14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="37" t="s">
-        <v>271</v>
+      <c r="J14" s="36" t="s">
+        <v>269</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>69</v>
@@ -2337,8 +2362,8 @@
       <c r="N14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="38" t="s">
-        <v>275</v>
+      <c r="O14" s="37" t="s">
+        <v>273</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>20</v>
@@ -2359,7 +2384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
@@ -2372,7 +2397,7 @@
       <c r="D15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>195</v>
       </c>
       <c r="F15" s="18" t="s">
@@ -2387,8 +2412,8 @@
       <c r="I15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="37" t="s">
-        <v>276</v>
+      <c r="J15" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>69</v>
@@ -2400,8 +2425,8 @@
         <v>84</v>
       </c>
       <c r="N15" s="14"/>
-      <c r="O15" s="38" t="s">
-        <v>277</v>
+      <c r="O15" s="37" t="s">
+        <v>275</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>20</v>
@@ -2422,7 +2447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -2435,7 +2460,7 @@
       <c r="D16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>195</v>
       </c>
       <c r="F16" s="18" t="s">
@@ -2450,8 +2475,8 @@
       <c r="I16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="37" t="s">
-        <v>301</v>
+      <c r="J16" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>69</v>
@@ -2463,8 +2488,8 @@
       <c r="N16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="38" t="s">
-        <v>278</v>
+      <c r="O16" s="37" t="s">
+        <v>276</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>20</v>
@@ -2485,7 +2510,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
@@ -2498,7 +2523,7 @@
       <c r="D17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>195</v>
       </c>
       <c r="F17" s="18" t="s">
@@ -2513,8 +2538,8 @@
       <c r="I17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="37" t="s">
-        <v>289</v>
+      <c r="J17" s="36" t="s">
+        <v>287</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>69</v>
@@ -2526,7 +2551,7 @@
         <v>59</v>
       </c>
       <c r="N17" s="14"/>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="37" t="s">
         <v>193</v>
       </c>
       <c r="P17" s="14" t="s">
@@ -2548,7 +2573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -2561,7 +2586,7 @@
       <c r="D18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>195</v>
       </c>
       <c r="F18" s="18" t="s">
@@ -2576,7 +2601,7 @@
       <c r="I18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="36" t="s">
         <v>102</v>
       </c>
       <c r="K18" s="14" t="s">
@@ -2589,8 +2614,8 @@
       <c r="N18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="38" t="s">
-        <v>272</v>
+      <c r="O18" s="37" t="s">
+        <v>270</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>19</v>
@@ -2611,7 +2636,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
@@ -2629,7 +2654,7 @@
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H19" s="14">
         <v>17</v>
@@ -2637,7 +2662,7 @@
       <c r="I19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="36" t="s">
         <v>196</v>
       </c>
       <c r="K19" s="14" t="s">
@@ -2649,8 +2674,8 @@
       <c r="M19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38" t="s">
+      <c r="N19" s="37"/>
+      <c r="O19" s="37" t="s">
         <v>193</v>
       </c>
       <c r="P19" s="14" t="s">
@@ -2672,7 +2697,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>68</v>
       </c>
@@ -2690,7 +2715,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H20" s="14">
         <v>18</v>
@@ -2698,7 +2723,7 @@
       <c r="I20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="36" t="s">
         <v>197</v>
       </c>
       <c r="K20" s="14" t="s">
@@ -2710,8 +2735,8 @@
       <c r="M20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38" t="s">
+      <c r="N20" s="37"/>
+      <c r="O20" s="37" t="s">
         <v>193</v>
       </c>
       <c r="P20" s="14" t="s">
@@ -2733,7 +2758,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
@@ -2751,7 +2776,7 @@
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H21" s="14">
         <v>19</v>
@@ -2759,8 +2784,8 @@
       <c r="I21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="37" t="s">
-        <v>266</v>
+      <c r="J21" s="36" t="s">
+        <v>264</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>69</v>
@@ -2771,9 +2796,9 @@
       <c r="M21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38" t="s">
-        <v>268</v>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>19</v>
@@ -2788,13 +2813,13 @@
         <v>130</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>68</v>
       </c>
@@ -2807,7 +2832,7 @@
       <c r="D22" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10" t="s">
         <v>103</v>
@@ -2818,7 +2843,7 @@
       <c r="I22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="39" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="14" t="s">
@@ -2831,8 +2856,8 @@
       <c r="N22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="38" t="s">
-        <v>248</v>
+      <c r="O22" s="37" t="s">
+        <v>246</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>19</v>
@@ -2853,7 +2878,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>68</v>
       </c>
@@ -2866,7 +2891,7 @@
       <c r="D23" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10" t="s">
         <v>106</v>
@@ -2877,7 +2902,7 @@
       <c r="I23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="39" t="s">
         <v>105</v>
       </c>
       <c r="K23" s="14" t="s">
@@ -2890,8 +2915,8 @@
         <v>79</v>
       </c>
       <c r="N23" s="14"/>
-      <c r="O23" s="38" t="s">
-        <v>249</v>
+      <c r="O23" s="37" t="s">
+        <v>247</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>19</v>
@@ -2912,7 +2937,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>68</v>
       </c>
@@ -2925,7 +2950,7 @@
       <c r="D24" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10" t="s">
         <v>107</v>
@@ -2936,8 +2961,8 @@
       <c r="I24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="40" t="s">
-        <v>290</v>
+      <c r="J24" s="39" t="s">
+        <v>288</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>69</v>
@@ -2949,8 +2974,8 @@
         <v>47</v>
       </c>
       <c r="N24" s="14"/>
-      <c r="O24" s="38" t="s">
-        <v>274</v>
+      <c r="O24" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="P24" s="14" t="s">
         <v>19</v>
@@ -2971,7 +2996,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>68</v>
       </c>
@@ -2989,7 +3014,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H25" s="14">
         <v>23</v>
@@ -2997,8 +3022,8 @@
       <c r="I25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>291</v>
+      <c r="J25" s="39" t="s">
+        <v>289</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>69</v>
@@ -3011,7 +3036,7 @@
       </c>
       <c r="N25" s="14"/>
       <c r="O25" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>19</v>
@@ -3032,7 +3057,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>68</v>
       </c>
@@ -3048,7 +3073,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
       <c r="G26" s="20" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="H26" s="14">
         <v>24</v>
@@ -3056,8 +3081,8 @@
       <c r="I26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="37" t="s">
-        <v>292</v>
+      <c r="J26" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>69</v>
@@ -3070,7 +3095,7 @@
         <v>35</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>19</v>
@@ -3085,13 +3110,13 @@
         <v>134</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U26" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
@@ -3117,7 +3142,7 @@
       <c r="I27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="36" t="s">
         <v>115</v>
       </c>
       <c r="K27" s="14" t="s">
@@ -3126,7 +3151,7 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="38"/>
+      <c r="O27" s="37"/>
       <c r="P27" s="14" t="s">
         <v>19</v>
       </c>
@@ -3146,7 +3171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>68</v>
       </c>
@@ -3159,7 +3184,7 @@
       <c r="D28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="37" t="s">
         <v>162</v>
       </c>
       <c r="F28" s="11"/>
@@ -3172,7 +3197,7 @@
       <c r="I28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="J28" s="36" t="s">
         <v>200</v>
       </c>
       <c r="K28" s="14" t="s">
@@ -3185,8 +3210,8 @@
         <v>24</v>
       </c>
       <c r="N28" s="14"/>
-      <c r="O28" s="38" t="s">
-        <v>205</v>
+      <c r="O28" s="37" t="s">
+        <v>203</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>19</v>
@@ -3207,7 +3232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>68</v>
       </c>
@@ -3220,7 +3245,7 @@
       <c r="D29" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="37" t="s">
         <v>162</v>
       </c>
       <c r="F29" s="11"/>
@@ -3233,8 +3258,8 @@
       <c r="I29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="37" t="s">
-        <v>293</v>
+      <c r="J29" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>69</v>
@@ -3247,7 +3272,7 @@
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>20</v>
@@ -3268,7 +3293,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="270" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3285,8 +3310,8 @@
         <v>162</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="20" t="s">
-        <v>202</v>
+      <c r="G30" s="41" t="s">
+        <v>303</v>
       </c>
       <c r="H30" s="14">
         <v>28</v>
@@ -3294,8 +3319,8 @@
       <c r="I30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="37" t="s">
-        <v>208</v>
+      <c r="J30" s="36" t="s">
+        <v>206</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>69</v>
@@ -3307,8 +3332,8 @@
       <c r="N30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="20" t="s">
-        <v>280</v>
+      <c r="O30" s="43" t="s">
+        <v>278</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>19</v>
@@ -3323,13 +3348,13 @@
         <v>134</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U30" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>68</v>
       </c>
@@ -3347,7 +3372,7 @@
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H31" s="14">
         <v>29</v>
@@ -3355,8 +3380,8 @@
       <c r="I31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="37" t="s">
-        <v>294</v>
+      <c r="J31" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>69</v>
@@ -3367,9 +3392,9 @@
       <c r="M31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38" t="s">
-        <v>251</v>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37" t="s">
+        <v>249</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>19</v>
@@ -3384,13 +3409,13 @@
         <v>130</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="U31" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>68</v>
       </c>
@@ -3416,8 +3441,8 @@
       <c r="I32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="37" t="s">
-        <v>214</v>
+      <c r="J32" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>69</v>
@@ -3429,8 +3454,8 @@
         <v>76</v>
       </c>
       <c r="N32" s="14"/>
-      <c r="O32" s="38" t="s">
-        <v>216</v>
+      <c r="O32" s="37" t="s">
+        <v>214</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>19</v>
@@ -3445,13 +3470,13 @@
         <v>130</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U32" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>68</v>
       </c>
@@ -3464,12 +3489,12 @@
       <c r="D33" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="10" t="s">
         <v>166</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H33" s="14">
         <v>31</v>
@@ -3477,8 +3502,8 @@
       <c r="I33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="37" t="s">
-        <v>211</v>
+      <c r="J33" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>69</v>
@@ -3490,8 +3515,8 @@
       <c r="N33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="38" t="s">
-        <v>252</v>
+      <c r="O33" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>19</v>
@@ -3506,13 +3531,13 @@
         <v>134</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U33" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>68</v>
       </c>
@@ -3525,12 +3550,12 @@
       <c r="D34" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="38"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="10" t="s">
         <v>167</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H34" s="14">
         <v>32</v>
@@ -3538,8 +3563,8 @@
       <c r="I34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="37" t="s">
-        <v>218</v>
+      <c r="J34" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>69</v>
@@ -3552,7 +3577,7 @@
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>19</v>
@@ -3567,13 +3592,13 @@
         <v>130</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U34" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
@@ -3599,8 +3624,8 @@
       <c r="I35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="37" t="s">
-        <v>212</v>
+      <c r="J35" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>69</v>
@@ -3612,8 +3637,8 @@
       <c r="N35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O35" s="41" t="s">
-        <v>300</v>
+      <c r="O35" s="40" t="s">
+        <v>298</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
@@ -3634,7 +3659,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>68</v>
       </c>
@@ -3660,8 +3685,8 @@
       <c r="I36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="37" t="s">
-        <v>220</v>
+      <c r="J36" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>69</v>
@@ -3674,7 +3699,7 @@
       </c>
       <c r="N36" s="14"/>
       <c r="O36" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>19</v>
@@ -3689,13 +3714,13 @@
         <v>130</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U36" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>68</v>
       </c>
@@ -3713,7 +3738,7 @@
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H37" s="14">
         <v>35</v>
@@ -3721,8 +3746,8 @@
       <c r="I37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="37" t="s">
-        <v>295</v>
+      <c r="J37" s="36" t="s">
+        <v>293</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>69</v>
@@ -3735,7 +3760,7 @@
       </c>
       <c r="N37" s="14"/>
       <c r="O37" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P37" s="14" t="s">
         <v>19</v>
@@ -3750,13 +3775,13 @@
         <v>130</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U37" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>68</v>
       </c>
@@ -3774,7 +3799,7 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H38" s="14">
         <v>36</v>
@@ -3782,8 +3807,8 @@
       <c r="I38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="37" t="s">
-        <v>230</v>
+      <c r="J38" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>69</v>
@@ -3795,8 +3820,8 @@
         <v>23</v>
       </c>
       <c r="N38" s="14"/>
-      <c r="O38" s="38" t="s">
-        <v>254</v>
+      <c r="O38" s="37" t="s">
+        <v>252</v>
       </c>
       <c r="P38" s="14" t="s">
         <v>19</v>
@@ -3811,13 +3836,13 @@
         <v>130</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U38" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
@@ -3835,7 +3860,7 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H39" s="14">
         <v>37</v>
@@ -3843,8 +3868,8 @@
       <c r="I39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="37" t="s">
-        <v>225</v>
+      <c r="J39" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>70</v>
@@ -3852,7 +3877,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
-      <c r="O39" s="38"/>
+      <c r="O39" s="37"/>
       <c r="P39" s="14" t="s">
         <v>19</v>
       </c>
@@ -3872,7 +3897,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -3890,7 +3915,7 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H40" s="14">
         <v>38</v>
@@ -3898,8 +3923,8 @@
       <c r="I40" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="37" t="s">
-        <v>235</v>
+      <c r="J40" s="36" t="s">
+        <v>233</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>69</v>
@@ -3911,8 +3936,8 @@
         <v>24</v>
       </c>
       <c r="N40" s="14"/>
-      <c r="O40" s="38" t="s">
-        <v>255</v>
+      <c r="O40" s="37" t="s">
+        <v>253</v>
       </c>
       <c r="P40" s="14" t="s">
         <v>19</v>
@@ -3927,13 +3952,13 @@
         <v>130</v>
       </c>
       <c r="T40" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U40" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>68</v>
       </c>
@@ -3951,7 +3976,7 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H41" s="14">
         <v>39</v>
@@ -3959,8 +3984,8 @@
       <c r="I41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="37" t="s">
-        <v>232</v>
+      <c r="J41" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>69</v>
@@ -3972,8 +3997,8 @@
       <c r="N41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="38" t="s">
-        <v>256</v>
+      <c r="O41" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>19</v>
@@ -3988,13 +4013,13 @@
         <v>134</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U41" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
@@ -4012,7 +4037,7 @@
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H42" s="14">
         <v>40</v>
@@ -4020,8 +4045,8 @@
       <c r="I42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="37" t="s">
-        <v>258</v>
+      <c r="J42" s="36" t="s">
+        <v>256</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>69</v>
@@ -4034,7 +4059,7 @@
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P42" s="14" t="s">
         <v>19</v>
@@ -4049,13 +4074,13 @@
         <v>130</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U42" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>68</v>
       </c>
@@ -4071,7 +4096,7 @@
       <c r="E43" s="29"/>
       <c r="F43" s="30"/>
       <c r="G43" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H43" s="14">
         <v>41</v>
@@ -4079,8 +4104,8 @@
       <c r="I43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="37" t="s">
-        <v>259</v>
+      <c r="J43" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>69</v>
@@ -4092,7 +4117,7 @@
         <v>74</v>
       </c>
       <c r="N43" s="29"/>
-      <c r="O43" s="38" t="s">
+      <c r="O43" s="37" t="s">
         <v>193</v>
       </c>
       <c r="P43" s="14" t="s">
@@ -4114,7 +4139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>68</v>
       </c>
@@ -4138,7 +4163,7 @@
       <c r="I44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="36" t="s">
         <v>110</v>
       </c>
       <c r="K44" s="15" t="s">
@@ -4151,8 +4176,8 @@
         <v>50</v>
       </c>
       <c r="N44" s="29"/>
-      <c r="O44" s="38" t="s">
-        <v>281</v>
+      <c r="O44" s="37" t="s">
+        <v>279</v>
       </c>
       <c r="P44" s="14" t="s">
         <v>19</v>
@@ -4173,7 +4198,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>68</v>
       </c>
@@ -4189,7 +4214,7 @@
       <c r="E45" s="29"/>
       <c r="F45" s="30"/>
       <c r="G45" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H45" s="14">
         <v>43</v>
@@ -4197,8 +4222,8 @@
       <c r="I45" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="40" t="s">
-        <v>239</v>
+      <c r="J45" s="39" t="s">
+        <v>237</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>69</v>
@@ -4211,7 +4236,7 @@
       </c>
       <c r="N45" s="25"/>
       <c r="O45" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P45" s="24" t="s">
         <v>19</v>
@@ -4226,13 +4251,13 @@
         <v>130</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="U45" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>68</v>
       </c>
@@ -4248,7 +4273,7 @@
       <c r="E46" s="29"/>
       <c r="F46" s="30"/>
       <c r="G46" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H46" s="14">
         <v>44</v>
@@ -4256,8 +4281,8 @@
       <c r="I46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="40" t="s">
-        <v>238</v>
+      <c r="J46" s="39" t="s">
+        <v>236</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>69</v>
@@ -4270,7 +4295,7 @@
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P46" s="24" t="s">
         <v>19</v>
@@ -4285,13 +4310,13 @@
         <v>130</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="U46" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
@@ -4302,9 +4327,9 @@
         <v>92</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="38"/>
+        <v>301</v>
+      </c>
+      <c r="E47" s="37"/>
       <c r="F47" s="11"/>
       <c r="G47" s="27" t="s">
         <v>91</v>
@@ -4315,8 +4340,8 @@
       <c r="I47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="40" t="s">
-        <v>242</v>
+      <c r="J47" s="39" t="s">
+        <v>240</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>69</v>
@@ -4334,7 +4359,7 @@
       <c r="T47" s="24"/>
       <c r="U47" s="24"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
@@ -4345,9 +4370,9 @@
         <v>92</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E48" s="38"/>
+        <v>301</v>
+      </c>
+      <c r="E48" s="37"/>
       <c r="F48" s="11"/>
       <c r="G48" s="27" t="s">
         <v>90</v>
@@ -4358,8 +4383,8 @@
       <c r="I48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="40" t="s">
-        <v>243</v>
+      <c r="J48" s="39" t="s">
+        <v>241</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>69</v>
@@ -4372,7 +4397,7 @@
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P48" s="24" t="s">
         <v>19</v>
@@ -4387,13 +4412,13 @@
         <v>130</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="U48" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
@@ -4406,7 +4431,7 @@
       <c r="D49" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="38"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="14">
@@ -4415,7 +4440,7 @@
       <c r="I49" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="37" t="s">
+      <c r="J49" s="36" t="s">
         <v>187</v>
       </c>
       <c r="K49" s="14" t="s">
@@ -4428,8 +4453,8 @@
         <v>63</v>
       </c>
       <c r="N49" s="14"/>
-      <c r="O49" s="38" t="s">
-        <v>263</v>
+      <c r="O49" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>20</v>
@@ -4528,16 +4553,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -4560,7 +4585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -4581,7 +4606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>35</v>
@@ -4602,7 +4627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>36</v>
@@ -4619,7 +4644,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>37</v>
@@ -4636,7 +4661,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>38</v>
@@ -4651,7 +4676,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -4664,7 +4689,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -4677,7 +4702,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>41</v>
@@ -4690,7 +4715,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -4703,7 +4728,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -4718,7 +4743,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>44</v>
@@ -4733,7 +4758,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>45</v>
@@ -4748,7 +4773,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -4763,7 +4788,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -4776,7 +4801,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -4789,7 +4814,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -4802,7 +4827,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -4815,7 +4840,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -4828,7 +4853,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
@@ -4841,7 +4866,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -4854,7 +4879,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -4867,7 +4892,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
@@ -4880,7 +4905,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -4893,7 +4918,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -4904,7 +4929,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -4915,7 +4940,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -4926,7 +4951,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -4937,7 +4962,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -4948,7 +4973,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -4959,7 +4984,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -4970,7 +4995,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -4981,7 +5006,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -4992,7 +5017,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -5003,7 +5028,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -5014,7 +5039,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -5025,7 +5050,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4" t="s">
@@ -5036,7 +5061,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
@@ -5047,7 +5072,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
@@ -5058,7 +5083,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5067,7 +5092,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5076,7 +5101,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5085,7 +5110,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5094,7 +5119,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5103,7 +5128,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5112,7 +5137,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5121,7 +5146,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5130,7 +5155,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5139,7 +5164,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5148,7 +5173,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
@@ -986,22 +986,10 @@
     <t>Más información</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">La noticia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">radial </t>
-    </r>
-  </si>
-  <si>
     <t>La noticia en vivo: vive una experiencia periodística</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La noticia </t>
   </si>
 </sst>
 </file>
@@ -1534,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,8 +1531,8 @@
     <col min="1" max="1" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="8" customWidth="1"/>
     <col min="7" max="7" width="81.7109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="6" customWidth="1"/>
@@ -3073,7 +3061,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
       <c r="G26" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H26" s="14">
         <v>24</v>
@@ -3311,7 +3299,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H30" s="14">
         <v>28</v>

--- a/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -983,13 +983,13 @@
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Más información</t>
-  </si>
-  <si>
     <t>La noticia en vivo: vive una experiencia periodística</t>
   </si>
   <si>
     <t xml:space="preserve">La noticia </t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
   </si>
 </sst>
 </file>
@@ -1229,11 +1229,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="M31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,94 +1553,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="33" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -3061,7 +3061,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
       <c r="G26" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H26" s="14">
         <v>24</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H30" s="14">
         <v>28</v>
@@ -3320,7 +3320,7 @@
       <c r="N30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="43" t="s">
+      <c r="O30" s="42" t="s">
         <v>278</v>
       </c>
       <c r="P30" s="14" t="s">
@@ -4315,7 +4315,7 @@
         <v>92</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="11"/>
@@ -4358,7 +4358,7 @@
         <v>92</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="11"/>
@@ -4465,11 +4465,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -4478,13 +4480,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amparo\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_02_CO\PROCESOS Y ESCALETAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="305">
   <si>
     <t>Asignatura</t>
   </si>
@@ -350,8 +350,606 @@
     <t xml:space="preserve">La obra de la Madre Francisca Josefa del Castillo </t>
   </si>
   <si>
+    <t xml:space="preserve">Domínguez Camargo: ¿Heredero barroco o barroco americano? </t>
+  </si>
+  <si>
+    <t>Interactivo para profundizar en la obra de Hernando Domínguez Camargo</t>
+  </si>
+  <si>
+    <t>Los arcaísmos</t>
+  </si>
+  <si>
+    <t>Interactivo que invita a los estudiantes a reconocer los arcaísmos</t>
+  </si>
+  <si>
+    <t>Relaciona los arcaísmos</t>
+  </si>
+  <si>
+    <t>Determina el arcaísmo del qué se trata</t>
+  </si>
+  <si>
+    <t>Reconoce las características de una noticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para organizar una noticia a partir de una imagen </t>
+  </si>
+  <si>
+    <t>¿Qué periódicos hay en Colombia?</t>
+  </si>
+  <si>
+    <t>Identifica las características del periodismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica los periódicos nacionales </t>
+  </si>
+  <si>
+    <t>El uso del lenguaje en distintos contextos</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes que muestra cómo el lenguaje se va adecuando a las distintas situaciones comunicativas</t>
+  </si>
+  <si>
+    <t>2° ESO</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>La lengua y el lenguaje</t>
+  </si>
+  <si>
+    <t>LC_08_01</t>
+  </si>
+  <si>
+    <t>La lengua y la sociedad</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las variedades de la lengua</t>
+  </si>
+  <si>
+    <t>LC_08_13</t>
+  </si>
+  <si>
+    <t>Lectura: la Colonia</t>
+  </si>
+  <si>
+    <t>Los contextos histórico, social y cultural de la literatura de la Colonia</t>
+  </si>
+  <si>
+    <t>El contexto social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El contexto cultural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La narrativa </t>
+  </si>
+  <si>
+    <t>La poesía</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M1C-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F10B-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso F8-01</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t>Recurso F6B-01</t>
+  </si>
+  <si>
+    <t>Recurso M5D-01</t>
+  </si>
+  <si>
+    <t>Recurso F6B-02</t>
+  </si>
+  <si>
+    <t>Recurso M13B-01</t>
+  </si>
+  <si>
+    <t>Recurso F6-01</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M2C-01</t>
+  </si>
+  <si>
+    <t>Recurso M11A-01</t>
+  </si>
+  <si>
+    <t>Recurso F4-01</t>
+  </si>
+  <si>
+    <t>Recurso M3B-01</t>
+  </si>
+  <si>
+    <t>Recurso M6A-01</t>
+  </si>
+  <si>
+    <t>Recurso F4-02</t>
+  </si>
+  <si>
+    <t>Recurso M10A-02</t>
+  </si>
+  <si>
+    <t>Recurso M12B-01</t>
+  </si>
+  <si>
+    <t>Recurso F10B-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso M1C-02</t>
+  </si>
+  <si>
+    <t>Recurso M9B-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidación </t>
+  </si>
+  <si>
+    <t>Semántica: los arcaísmos</t>
+  </si>
+  <si>
+    <t>Expresión oral: la noticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lenguaje en las noticias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmite una noticia </t>
+  </si>
+  <si>
+    <t>Comunicación: el periodismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los medios de comunicación y el periodismo </t>
+  </si>
+  <si>
+    <t>Los periódicos de hoy</t>
+  </si>
+  <si>
+    <t>El periodismo en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los primeros periódicos colombianos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ética y comunicación: las variedades de la lengua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La diversidad en el uso de la lengua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La norma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La disgreción de la norma </t>
+  </si>
+  <si>
+    <t>Consolidación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencias </t>
+  </si>
+  <si>
+    <t>Actividad para comparar textos literarios de la Colonia</t>
+  </si>
+  <si>
+    <t>LE_08_02_CO</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los tipos de textos literarios que se utilizaron durante la Colonia</t>
+  </si>
+  <si>
+    <t>Actividad para determinar las características de la Colonia a partir de la lectura de fragmentos literarios</t>
+  </si>
+  <si>
+    <t>Actividad para clasificar textos literarios a partir de la identificación del tipo de lengua implementado</t>
+  </si>
+  <si>
+    <t>Se expone dos tipos de textos a partir de los cuales se realizan tres preguntas para cada uno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco de actividades </t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades para repasar los contenidos del tema La literatura colombiana de la Colonia </t>
+  </si>
+  <si>
+    <t>Recurso M3B1-01</t>
+  </si>
+  <si>
+    <t>Se presentan tres fragmentos literarios en audio de diferentes tipos de textos y/o géneros literarios para que los estudiantes los relacionen con el género literario respectivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para conocer en qué consistió la literatura de la Conquista </t>
+  </si>
+  <si>
+    <t>Actividad para identificar el contexto cultural de la época colonial en la Nueva Granada</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por  el autor. Aprobado para digitalizar.</t>
+  </si>
+  <si>
+    <t>Recurso M5D-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los géneros, las obras y los autores de la literatura colombiana de la Colonia </t>
+  </si>
+  <si>
+    <t>Recurso M3B-02</t>
+  </si>
+  <si>
+    <t>Recurso M13B-02</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las características de una noticia</t>
+  </si>
+  <si>
+    <t>Recurso F4-03</t>
+  </si>
+  <si>
+    <t>En un contenedor se expone tres palabras relacionadas con la estructura de una noticia y en el otro contenedor dos características de cada palabra, para que los estudiantes las relacionen.</t>
+  </si>
+  <si>
+    <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Interactivo para elaborar una noticia a partir de las características y estructura vista durante el desarrollo de tema</t>
+  </si>
+  <si>
+    <t>La evolución de periodismo en Colombia</t>
+  </si>
+  <si>
+    <t>Interactivo que evidencia algunas etapas del periodismo en Colombia</t>
+  </si>
+  <si>
+    <t>Interactivo para conocer nombres y  zona de influencia de algunos periódicos colombianos</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la definición y las características del periodismo</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Seleccionar dos párrafos encaminados a definir el concepto de periodismo y sus características. A su vez se seleccionan algunas palabras para que el estudiante tenga la oportunidad de completarlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar el nombre de los primeros periódicos colombianos </t>
+  </si>
+  <si>
+    <t>Recurso M11A-02</t>
+  </si>
+  <si>
+    <t>Dos contenedores principales: Periódicos colombianos - periódicos extranjeros  y varias etiquetas con los nombres de los periódicos.</t>
+  </si>
+  <si>
+    <t>Recurso M10A-03</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades que permite reconocer la variedad de la lengua desde el contexto poético </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practica las variedades de la lengua </t>
+  </si>
+  <si>
+    <t>Actividad para fortalecer los conocimientos relacionados con el periodismo y la libertad de expresión</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Determina las características de la libertad de expresión</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>Cuatro preguntas relacionadas con aplicación de las normas y que motiven a los estudiantes a interpretar y expresar su posición frente a las normas.</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar situaciones narradas en el audio con un estilo periodístico</t>
+  </si>
+  <si>
+    <t>Se exponen cinco audios que narran noticias cortas para relacionarlas con los siguientes estilos periodísticos: estilo de opinión, estilo ameno o estilo informativo.</t>
+  </si>
+  <si>
+    <t>Recurso M3B-03</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La literatura colombiana de la Colonia</t>
+  </si>
+  <si>
+    <t>Actividad que permite reconocer los arcaísmos en un texto literario a partir del significado</t>
+  </si>
+  <si>
+    <t>Se expone un fragmento literario con cuatro preguntas para que el estudiante infiera las características del texto y las relacione con la Colonia.</t>
+  </si>
+  <si>
+    <t>Seleccionar ocho imágenes para que los estudiantes a partir de ellas reconozcan el arcaísmo del cual se habla, por ejemplo anteojos, balde, alacena, etc.</t>
+  </si>
+  <si>
+    <t>Ocho audios de arcaísmos y ocho etiquetas con su correspondiente definición.</t>
+  </si>
+  <si>
+    <t>Se selecciona o se crea un texto para que los estudiantes lo completen escribiendo el arcaísmo adecuado.</t>
+  </si>
+  <si>
+    <t>Se plantean cinco preguntas que permitan al estudiante inferir, interpretar y debatir el uso del lenguaje, de la expresión corporal, y  del conocimiento de temas de actualidad como herramientas para consolidar noticias de interés cultural, social y personal ( puede ser a partir de  titulares)</t>
+  </si>
+  <si>
+    <t>Se sugiere ubicar tres fotografías centrales que representen tres etapas importantes del periodismo en Colombia (  Independencia - Siglo XX - siglo XXI). Internamente se amplia con características de cada periodo. (No olvidar la transición el periódico impreso al digital)</t>
+  </si>
+  <si>
+    <t>Elaborar crucigrama con mínimo 8 nombres de periódicos colombianos y distribuirlos de manera balanceada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seis preguntas con respuesta de selección múltiple. La estructura de las preguntas debe permitir que los estudiantes realicen inferencias e interpretaciones  relacionadas con el tema. </t>
+  </si>
+  <si>
+    <t>Tres contenedores: normas jurídicas, normas religiosas y normas morales.  Etiquetas que contienen ejemplos de normas de cada tipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres fotos relacionadas con los siguientes temas: Me respeto - Respeto a los otros - Respeto a la naturaleza, debe aparecer información general y un botón que invite a investigar algunos casos que no cumplan las normas relacionadas con los temas citados. </t>
+  </si>
+  <si>
+    <t>Cinco preguntas de interpretación y de argumentación relacionadas con el papel del periodismo en Colombia.</t>
+  </si>
+  <si>
+    <t>Actividad que permite repasar aspectos culturales del mestizaje, a partir de la construcción de un texto</t>
+  </si>
+  <si>
+    <t>Se exponen cuatro fragmentos de textos literarios y no literarios para que los estudiantes identifiquen cuales pertenecen a una lengua culta y cuales a una lengua popular.</t>
+  </si>
+  <si>
+    <t>Retomar información indicada del guion para su elaboración.</t>
+  </si>
+  <si>
+    <t>Realizar seis preguntas relacionadas con el tema La literatura colombiana de la Colonia.</t>
+  </si>
+  <si>
+    <t>Debe incluirse 10 preguntas abiertas:3 sobre literatura de la Colonia; 2 sobre arcaísmos, 3 sobre el periodismo, 2 sobre las variedades de la lengua. Debe marcarse en el greco Gestor de actividades como actividad didáctica.</t>
+  </si>
+  <si>
+    <t>Recurso M4A-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Selecciona el arcaísmo </t>
+  </si>
+  <si>
+    <t>Tres preguntas relacionadas con el tema de literatura desarrollado durante la sección.</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por  el autor. Aprobado para digitalizar. DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en
+que se han producido.</t>
+  </si>
+  <si>
+    <t>Describir cada proceso  y pautas necesarias para la construcción del periódico.                                                                DBA: Aplica todas las etapas de la escritura en la elaboración de textos coherentes y cohesionados, con criterios cercanos a los de una publicación.</t>
+  </si>
+  <si>
+    <t>Se exponen seis pistas para que el estudiante escriba el arcaísmo correspondiente a cada pista.                                             DBA: Determina el significado de palabras y oraciones que se usan en diversos textos, incluyendo regionalismos, expresiones idiomáticas, analogías y figuras retóricas.</t>
+  </si>
+  <si>
+    <t>Recurso elaborado por  el autor. Aprobado para digitalizar. DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en
+que se han producido.                                                                       DBA: Aprecia el legado literario colombiano y latinoamericano, mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurso elaborado por  el autor. Aprobado para digitalizar. DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en
+que se han producido.                                                                               DBA: Aprecia el legado literario colombiano y latinoamericano, mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.                                                  </t>
+  </si>
+  <si>
+    <t>Recurso elaborado por  el autor. Aprobado para digitalizar.      DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en que se han producido.                                                                                DBA: Aprecia el legado literario colombiano y latinoamericano, mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes de una misma situación para que los estudiantes a partir de ellas y con preguntas guías organice una noticia oral.                                                                         DBA: Participa en diversas actividades orales formales en las que se requiere preparar la información con antelación, hacer referencia a los conceptos investigados y llegar a conclusiones coherentes.</t>
+  </si>
+  <si>
+    <t>Ver instrucciones para desarrollo del motor. Se sugiere tener en cuenta las siguientes observaciones:                                   Planea: se invita a los estudiantes a escuchar noticias de diferentes emisoras para que las comparen y emitan un juicio de valor para cada una de ellas. De igual manera se proponen temas de actualidad y de interés para los jóvenes.                                                                                                                    Organiza:       Se invita a los estudiantes a seleccionar un tema, luego deberán escribir cuatro preguntas relacionadas con la noticia que desarrollarían.                                                                         Participa: se exponen cinco sugerencias para exponer la noticia de manera oral.                                                                        Evalúa: se invita a los estudiantes a resolver seis ítems de evaluación de la actividad para establecer si cumplieron con el propósito de la actividad.                                                                           DBA: Participa en diversas actividades orales formales en las que se requiere preparar la información con antelación,
+hacer referencia a los conceptos investigados y llegar a
+conclusiones coherentes.</t>
+  </si>
+  <si>
+    <t>Se señalan algunos elementos importantes de la noticia. DBA: Participa en diversas actividades orales formales en las que se requiere preparar la información con antelación,
+hacer referencia a los conceptos investigados y llegar a
+conclusiones coherentes.</t>
+  </si>
+  <si>
+    <t>Reconoce en qué consistió la literatura de la Conquista</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Representantes de la literatura de la Colonia en Colombia</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Justifica la importancia de la noticia como elemento de comunicación oral</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Analiza el papel del periodismo en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para narrar de manera oral una noticia  a partir de imágenes </t>
+  </si>
+  <si>
+    <t>Actividad que invita a los estudiantes a completar oraciones sobre la literatura de la Época colonial en España y en Colombia</t>
+  </si>
+  <si>
+    <t>Actividad para descubrir el arcaísmo a partir de  las pistas expuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para señalar los arcaísmos utilizados en un texto </t>
+  </si>
+  <si>
+    <t>Interactivo para organizar una noticia oral mediante preguntas clave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que permite relacionar y ordenar la  secuencia de una noticia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para justificar el uso de la noticia como estrategia de expresión oral </t>
+  </si>
+  <si>
+    <t>Actividad para expresar la opinión personal a partir del desarrollo del periodismo en Colombia</t>
+  </si>
+  <si>
+    <t>Se expone cuatro palabras del texto que cumplan la función de arcaísmo con sus respectivos significados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaciona cinco frases en la secuencia adecuada para componer un texto completo sobre la literatura de la Conquista. Recurso elaborado por el autor pero se recomienda insertar dos frases más. </t>
+  </si>
+  <si>
+    <t>Una fotografía base que funcione para realizar una noticia, se muestra desde diferente ángulo, se exponen preguntas que acompañan cada fotografía para que guie la organización de una noticia (Qué, quién, cómo, dónde, cuándo, por qué)</t>
+  </si>
+  <si>
+    <t>Se expone seis audios, relacionados con una noticia,  a partir de las preguntas clave (Qué, quién, cómo, dónde, cuándo, por qué)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se sugiere, cinco botones con el nombre de un periódico característico de una región de Colombia, por ejemplo: El tiempo, Vanguardia liberal, El heraldo, El Colombiano, etc. Se específica internamente la región en la que tiene influencia, enlaces webs al periódico e información básico de su origen o que sea relevante para el periódico.  </t>
+  </si>
+  <si>
+    <t>Interactivo para profundizar en la obra de la autora Madre Francisca Josefa del Castillo, a partir del contexto en el cual se ha producido la obra</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-01</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Expresión oral: narra una noticia</t>
+  </si>
+  <si>
+    <t>Literatura: compara textos coloniales</t>
+  </si>
+  <si>
+    <t>Semántica: identifica los arcaísmos</t>
+  </si>
+  <si>
+    <t>Comprensión textual: reconoce las tipologías textuales en la literatura Colonial</t>
+  </si>
+  <si>
+    <t>Comprensión textual: determina las características de la Colonia</t>
+  </si>
+  <si>
+    <t>Ética de la comunicación: diferencia la literatura culta de la literatura popular</t>
+  </si>
+  <si>
+    <t>Identifica el concepto estético y artístico de la Colonia</t>
+  </si>
+  <si>
+    <t>Comprende el estilo de la obra Elegía de Varones Ilustres de Indias, de Juan de Castellanos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Reconoce las características de la Colonia en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Comprueba tus conocimientos en literatura de la Colonia en Colombia </t>
+  </si>
+  <si>
+    <t>La noticia oral</t>
+  </si>
+  <si>
+    <t>Ordena la información de una noticia</t>
+  </si>
+  <si>
+    <t>La noticia en directo: vive una experiencia periodística</t>
+  </si>
+  <si>
+    <t>Identifica los primeros periódicos nacionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica las normas lingüísticas  </t>
+  </si>
+  <si>
+    <t>Las normas de la lengua  en la socialización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Analiza y justifica el uso de las variedades de la lengua </t>
+  </si>
+  <si>
+    <t>Literatura:  la cultura popular y el mestizaje cultural</t>
+  </si>
+  <si>
+    <t>Expresión oral: organizo una noticia</t>
+  </si>
+  <si>
+    <t>Medios de comunicación: desarrolla el periodismo en tu cotidianidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto: diseña un periódico para tu ciudad </t>
+  </si>
+  <si>
+    <t>Banco de actividades: La literatura colombiana de la Colonia</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta dos momentos del periodo Colonial: el Barroco y la Ilustración</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interactivo para profundizar en la comprensión de textos: El Carnero </t>
+  </si>
+  <si>
+    <t>Actividad para conocer y analizar elementos de la obra de Pedro Solís y Valenzuela</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los adjetivos utilizados como herramienta de estilo de la obra Elegía de Varones Ilustres de Indias</t>
+  </si>
+  <si>
+    <t>Actividad para completar un párrafo relacionado con la literatura de la Colonia en Colombia</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los principales representantes de la literatura de la Colonia en Colombia</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Analiza la obra </t>
+      <t xml:space="preserve">Actividad para verificar lo aprendido del tema </t>
     </r>
     <r>
       <rPr>
@@ -362,641 +960,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Elegía de Varones Ilustres de Indias</t>
+      <t>La literatura de la Colonia en Colombia</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, de Juan de Castellanos</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Domínguez Camargo: ¿Heredero barroco o barroco americano? </t>
-  </si>
-  <si>
-    <t>Interactivo para profundizar en la obra de Hernando Domínguez Camargo</t>
-  </si>
-  <si>
-    <t>Los arcaísmos</t>
-  </si>
-  <si>
-    <t>Interactivo que invita a los estudiantes a reconocer los arcaísmos</t>
-  </si>
-  <si>
-    <t>Actividad para relacionar algunos arcaísmos con su definición</t>
-  </si>
-  <si>
-    <t>Relaciona los arcaísmos</t>
-  </si>
-  <si>
-    <t>Determina el arcaísmo del qué se trata</t>
-  </si>
-  <si>
-    <t>Reconoce las características de una noticia</t>
-  </si>
-  <si>
-    <t>Expresión oral: Organizo una noticia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para organizar una noticia a partir de una imagen </t>
-  </si>
-  <si>
-    <t>¿Qué periódicos hay en Colombia?</t>
-  </si>
-  <si>
-    <t>Identifica las características del periodismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifica los periódicos nacionales </t>
-  </si>
-  <si>
-    <t>El uso del lenguaje en distintos contextos</t>
-  </si>
-  <si>
-    <t>Secuencia de imágenes que muestra cómo el lenguaje se va adecuando a las distintas situaciones comunicativas</t>
-  </si>
-  <si>
-    <t>2° ESO</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>La lengua y el lenguaje</t>
-  </si>
-  <si>
-    <t>LC_08_01</t>
-  </si>
-  <si>
-    <t>La lengua y la sociedad</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Las variedades de la lengua</t>
-  </si>
-  <si>
-    <t>LC_08_13</t>
-  </si>
-  <si>
-    <t>Lectura: la Colonia</t>
-  </si>
-  <si>
-    <t>Los contextos histórico, social y cultural de la literatura de la Colonia</t>
-  </si>
-  <si>
-    <t>El contexto social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El contexto cultural </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La narrativa </t>
-  </si>
-  <si>
-    <t>La poesía</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M1C-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F10B-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso F8-01</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
-    <t>Recurso M5D-01</t>
-  </si>
-  <si>
-    <t>Recurso F6B-02</t>
-  </si>
-  <si>
-    <t>Recurso M13B-01</t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Recurso M2C-01</t>
-  </si>
-  <si>
-    <t>Recurso M11A-01</t>
-  </si>
-  <si>
-    <t>Recurso F4-01</t>
-  </si>
-  <si>
-    <t>Recurso M3B-01</t>
-  </si>
-  <si>
-    <t>Recurso M6A-01</t>
-  </si>
-  <si>
-    <t>Recurso F4-02</t>
-  </si>
-  <si>
-    <t>Recurso M10A-02</t>
-  </si>
-  <si>
-    <t>Recurso M12B-01</t>
-  </si>
-  <si>
-    <t>Recurso F10B-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Recurso M1C-02</t>
-  </si>
-  <si>
-    <t>Recurso M9B-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consolidación </t>
-  </si>
-  <si>
-    <t>Semántica: los arcaísmos</t>
-  </si>
-  <si>
-    <t>Expresión oral: la noticia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El lenguaje en las noticias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmite una noticia </t>
-  </si>
-  <si>
-    <t>Comunicación: el periodismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los medios de comunicación y el periodismo </t>
-  </si>
-  <si>
-    <t>Los periódicos de hoy</t>
-  </si>
-  <si>
-    <t>El periodismo en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los primeros periódicos colombianos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ética y comunicación: las variedades de la lengua </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La diversidad en el uso de la lengua </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La norma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La disgreción de la norma </t>
-  </si>
-  <si>
-    <t>Consolidación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competencias </t>
-  </si>
-  <si>
-    <t>Lectura - literatura: comprende la literatura de la Colonia</t>
-  </si>
-  <si>
-    <t>Actividad para comparar textos literarios de la Colonia</t>
-  </si>
-  <si>
-    <t>LE_08_02_CO</t>
-  </si>
-  <si>
-    <t>Lectura - semántica: reconoce los arcaísmos</t>
-  </si>
-  <si>
-    <t>Lectura - expresión oral: narra una noticia</t>
-  </si>
-  <si>
-    <t>Lectura - comprensión textual: identifica los tipos de textos</t>
-  </si>
-  <si>
-    <t>Lectura - ética de la comunicación: reconoce los tipos de lengua que se utilizan en los textos</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer los tipos de textos literarios que se utilizaron durante la Colonia</t>
-  </si>
-  <si>
-    <t>Actividad para determinar las características de la Colonia a partir de la lectura de fragmentos literarios</t>
-  </si>
-  <si>
-    <t>Actividad para clasificar textos literarios a partir de la identificación del tipo de lengua implementado</t>
-  </si>
-  <si>
-    <t>Se expone dos tipos de textos a partir de los cuales se realizan tres preguntas para cada uno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco de actividades </t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividades para repasar los contenidos del tema La literatura colombiana de la Colonia </t>
-  </si>
-  <si>
-    <t>Recurso M3B1-01</t>
-  </si>
-  <si>
-    <t>Se presentan tres fragmentos literarios en audio de diferentes tipos de textos y/o géneros literarios para que los estudiantes los relacionen con el género literario respectivo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para conocer en qué consistió la literatura de la Conquista </t>
-  </si>
-  <si>
-    <t>Reconoce las ideas, el concepto estético y la visión de mundo de la época colonial en la Nueva Granada</t>
-  </si>
-  <si>
-    <t>Actividad para identificar el contexto cultural de la época colonial en la Nueva Granada</t>
-  </si>
-  <si>
-    <t>Recurso elaborado por  el autor. Aprobado para digitalizar.</t>
-  </si>
-  <si>
-    <t>Recurso M5D-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los géneros, las obras y los autores de la literatura colombiana de la Colonia </t>
-  </si>
-  <si>
-    <t>Actividad para distinguir los nombres de algunas obras escritas en Colombia durante la Colonia</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer los nombres de los principales representantes de la literatura de la Colonia en Colombia</t>
-  </si>
-  <si>
-    <t>Recurso M3B-02</t>
-  </si>
-  <si>
-    <t>Recurso M13B-02</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer las características de una noticia</t>
-  </si>
-  <si>
-    <t>Ordena la secuencia de una noticia</t>
-  </si>
-  <si>
-    <t>Recurso F4-03</t>
-  </si>
-  <si>
-    <t>En un contenedor se expone tres palabras relacionadas con la estructura de una noticia y en el otro contenedor dos características de cada palabra, para que los estudiantes las relacionen.</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Interactivo para elaborar una noticia a partir de las características y estructura vista durante el desarrollo de tema</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta dos momentos del  periodo Colonial, en América y en Colombia</t>
-  </si>
-  <si>
-    <t>La evolución de periodismo en Colombia</t>
-  </si>
-  <si>
-    <t>Interactivo que evidencia algunas etapas del periodismo en Colombia</t>
-  </si>
-  <si>
-    <t>Interactivo para conocer nombres y  zona de influencia de algunos periódicos colombianos</t>
-  </si>
-  <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer la definición y las características del periodismo</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>Seleccionar dos párrafos encaminados a definir el concepto de periodismo y sus características. A su vez se seleccionan algunas palabras para que el estudiante tenga la oportunidad de completarlo.</t>
-  </si>
-  <si>
-    <t>Identifica los primeros periódicos colombianos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para identificar el nombre de los primeros periódicos colombianos </t>
-  </si>
-  <si>
-    <t>Recurso M11A-02</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer y clasificar diferentes periódicos</t>
-  </si>
-  <si>
-    <t>Dos contenedores principales: Periódicos colombianos - periódicos extranjeros  y varias etiquetas con los nombres de los periódicos.</t>
-  </si>
-  <si>
-    <t>Recurso M10A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M4A-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividades que permite reconocer la variedad de la lengua desde el contexto poético </t>
-  </si>
-  <si>
-    <t>Medios de comunicación: Desarrolla el periodismo en tu cotidianidad</t>
-  </si>
-  <si>
-    <t>Las normas en la socialización</t>
-  </si>
-  <si>
-    <t>Proyecto: Diseña un periódico para tu ciudad que invite a aplicar normas básicas de socialización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practica las variedades de la lengua </t>
-  </si>
-  <si>
-    <t>Actividad para fortalecer los conocimientos relacionados con el periodismo y la libertad de expresión</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Determina las características de la libertad de expresión</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer la importancia de las normas en las relaciones personales</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clasifica las normas </t>
-  </si>
-  <si>
-    <t>Actividad para distinguir las normas de acuerdo al contexto</t>
-  </si>
-  <si>
-    <t>Cuatro preguntas relacionadas con aplicación de las normas y que motiven a los estudiantes a interpretar y expresar su posición frente a las normas.</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Interactivo que permite construir un periódico que motive a los estudiantes a aplicar las normas</t>
-  </si>
-  <si>
-    <t>Actividad para relacionar situaciones narradas en el audio con un estilo periodístico</t>
-  </si>
-  <si>
-    <t>Se exponen cinco audios que narran noticias cortas para relacionarlas con los siguientes estilos periodísticos: estilo de opinión, estilo ameno o estilo informativo.</t>
-  </si>
-  <si>
-    <t>Recurso M3B-03</t>
-  </si>
-  <si>
-    <t>Mapa conceptual del tema La literatura colombiana de la Colonia</t>
-  </si>
-  <si>
-    <t>Actividad para evaluar los conocimientos del estudiantes sobre el tema La literatura colombiana de la Colonia</t>
-  </si>
-  <si>
-    <t>Literatura: Refuerza tu aprendizaje sobre la cultura popular y el mestizaje cultural</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer los arcaísmos en un texto literario a partir del significado</t>
-  </si>
-  <si>
-    <t>Lectura - comprensión textual: reconoce las características de los textos de la Colonia</t>
-  </si>
-  <si>
-    <t>Se expone un fragmento literario con cuatro preguntas para que el estudiante infiera las características del texto y las relacione con la Colonia.</t>
-  </si>
-  <si>
-    <t>Seleccionar ocho imágenes para que los estudiantes a partir de ellas reconozcan el arcaísmo del cual se habla, por ejemplo anteojos, balde, alacena, etc.</t>
-  </si>
-  <si>
-    <t>Ocho audios de arcaísmos y ocho etiquetas con su correspondiente definición.</t>
-  </si>
-  <si>
-    <t>Se selecciona o se crea un texto para que los estudiantes lo completen escribiendo el arcaísmo adecuado.</t>
-  </si>
-  <si>
-    <t>Se plantean cinco preguntas que permitan al estudiante inferir, interpretar y debatir el uso del lenguaje, de la expresión corporal, y  del conocimiento de temas de actualidad como herramientas para consolidar noticias de interés cultural, social y personal ( puede ser a partir de  titulares)</t>
-  </si>
-  <si>
-    <t>Se sugiere ubicar tres fotografías centrales que representen tres etapas importantes del periodismo en Colombia (  Independencia - Siglo XX - siglo XXI). Internamente se amplia con características de cada periodo. (No olvidar la transición el periódico impreso al digital)</t>
-  </si>
-  <si>
-    <t>Elaborar crucigrama con mínimo 8 nombres de periódicos colombianos y distribuirlos de manera balanceada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seis preguntas con respuesta de selección múltiple. La estructura de las preguntas debe permitir que los estudiantes realicen inferencias e interpretaciones  relacionadas con el tema. </t>
-  </si>
-  <si>
-    <t>Tres contenedores: normas jurídicas, normas religiosas y normas morales.  Etiquetas que contienen ejemplos de normas de cada tipo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres fotos relacionadas con los siguientes temas: Me respeto - Respeto a los otros - Respeto a la naturaleza, debe aparecer información general y un botón que invite a investigar algunos casos que no cumplan las normas relacionadas con los temas citados. </t>
-  </si>
-  <si>
-    <t>Cinco preguntas de interpretación y de argumentación relacionadas con el papel del periodismo en Colombia.</t>
-  </si>
-  <si>
-    <t>Actividad que permite expresar una posición personal de  acuerdo a las normas</t>
-  </si>
-  <si>
-    <t>Actividad que permite repasar aspectos culturales del mestizaje, a partir de la construcción de un texto</t>
-  </si>
-  <si>
-    <t>Se exponen cuatro fragmentos de textos literarios y no literarios para que los estudiantes identifiquen cuales pertenecen a una lengua culta y cuales a una lengua popular.</t>
-  </si>
-  <si>
-    <t>Retomar información indicada del guion para su elaboración.</t>
-  </si>
-  <si>
-    <t>Realizar seis preguntas relacionadas con el tema La literatura colombiana de la Colonia.</t>
-  </si>
-  <si>
-    <t>Debe incluirse 10 preguntas abiertas:3 sobre literatura de la Colonia; 2 sobre arcaísmos, 3 sobre el periodismo, 2 sobre las variedades de la lengua. Debe marcarse en el greco Gestor de actividades como actividad didáctica.</t>
-  </si>
-  <si>
-    <t>Recurso M4A-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu parendizaje: comprueba tus conocimientos en literatura de la Colonia en Colombia </t>
-  </si>
-  <si>
-    <t>Actividad para verificar lo aprendido del tema La litertura de la Colonia en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Selecciona el arcaísmo </t>
-  </si>
-  <si>
-    <t>Tres preguntas relacionadas con el tema de literatura desarrollado durante la sección.</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Variedades de la lengua : Analiza las normas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que permite comprender el significado del texto con relación al contexto social, cultural, político y económico en que se ha producido la obra.  </t>
-  </si>
-  <si>
-    <t>Recurso elaborado por  el autor. Aprobado para digitalizar. DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en
-que se han producido.</t>
-  </si>
-  <si>
-    <t>Describir cada proceso  y pautas necesarias para la construcción del periódico.                                                                DBA: Aplica todas las etapas de la escritura en la elaboración de textos coherentes y cohesionados, con criterios cercanos a los de una publicación.</t>
-  </si>
-  <si>
-    <t>Se exponen seis pistas para que el estudiante escriba el arcaísmo correspondiente a cada pista.                                             DBA: Determina el significado de palabras y oraciones que se usan en diversos textos, incluyendo regionalismos, expresiones idiomáticas, analogías y figuras retóricas.</t>
-  </si>
-  <si>
-    <t>Recurso elaborado por  el autor. Aprobado para digitalizar. DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en
-que se han producido.                                                                       DBA: Aprecia el legado literario colombiano y latinoamericano, mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.</t>
-  </si>
-  <si>
-    <t>Actividad que permite relacionar los aspectos social, cultural, político y económico en que se ha producido la obra y el narrativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurso elaborado por  el autor. Aprobado para digitalizar. DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en
-que se han producido.                                                                               DBA: Aprecia el legado literario colombiano y latinoamericano, mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.                                                  </t>
-  </si>
-  <si>
-    <t>Recurso elaborado por  el autor. Aprobado para digitalizar.      DBA: Relaciona los significados de los textos que lee con los contextos sociales, culturales, políticos y económicos en que se han producido.                                                                                DBA: Aprecia el legado literario colombiano y latinoamericano, mediante la lectura de textos de ficción y no ficción, poesía, ensayos y obras periodísticas.</t>
-  </si>
-  <si>
-    <t>Secuencia de imágenes de una misma situación para que los estudiantes a partir de ellas y con preguntas guías organice una noticia oral.                                                                         DBA: Participa en diversas actividades orales formales en las que se requiere preparar la información con antelación, hacer referencia a los conceptos investigados y llegar a conclusiones coherentes.</t>
-  </si>
-  <si>
-    <t>Ver instrucciones para desarrollo del motor. Se sugiere tener en cuenta las siguientes observaciones:                                   Planea: se invita a los estudiantes a escuchar noticias de diferentes emisoras para que las comparen y emitan un juicio de valor para cada una de ellas. De igual manera se proponen temas de actualidad y de interés para los jóvenes.                                                                                                                    Organiza:       Se invita a los estudiantes a seleccionar un tema, luego deberán escribir cuatro preguntas relacionadas con la noticia que desarrollarían.                                                                         Participa: se exponen cinco sugerencias para exponer la noticia de manera oral.                                                                        Evalúa: se invita a los estudiantes a resolver seis ítems de evaluación de la actividad para establecer si cumplieron con el propósito de la actividad.                                                                           DBA: Participa en diversas actividades orales formales en las que se requiere preparar la información con antelación,
-hacer referencia a los conceptos investigados y llegar a
-conclusiones coherentes.</t>
-  </si>
-  <si>
-    <t>Se señalan algunos elementos importantes de la noticia. DBA: Participa en diversas actividades orales formales en las que se requiere preparar la información con antelación,
-hacer referencia a los conceptos investigados y llegar a
-conclusiones coherentes.</t>
-  </si>
-  <si>
-    <t>Reconoce en qué consistió la literatura de la Conquista</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los géneros literarios desarrollados durante la Colonia en Colombia</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Representantes de la literatura de la Colonia en Colombia</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Justifica la importancia de la noticia como elemento de comunicación oral</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Analiza el papel del periodismo en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para narrar de manera oral una noticia  a partir de imágenes </t>
-  </si>
-  <si>
-    <t>Actividad que invita a los estudiantes a completar oraciones sobre la literatura de la Época colonial en España y en Colombia</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer el estilo de la obra Elegía de Varones Ilustres de Indias, a través de la identificación de los adjetivos utilizados</t>
-  </si>
-  <si>
-    <t>Actividad para descubrir el arcaísmo a partir de  las pistas expuestas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para señalar los arcaísmos utilizados en un texto </t>
-  </si>
-  <si>
-    <t>Interactivo para organizar una noticia oral mediante preguntas clave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que permite relacionar y ordenar la  secuencia de una noticia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para justificar el uso de la noticia como estrategia de expresión oral </t>
-  </si>
-  <si>
-    <t>Actividad para expresar la opinión personal a partir del desarrollo del periodismo en Colombia</t>
-  </si>
-  <si>
-    <t>Se expone cuatro palabras del texto que cumplan la función de arcaísmo con sus respectivos significados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relaciona cinco frases en la secuencia adecuada para componer un texto completo sobre la literatura de la Conquista. Recurso elaborado por el autor pero se recomienda insertar dos frases más. </t>
-  </si>
-  <si>
-    <t>Una fotografía base que funcione para realizar una noticia, se muestra desde diferente ángulo, se exponen preguntas que acompañan cada fotografía para que guie la organización de una noticia (Qué, quién, cómo, dónde, cuándo, por qué)</t>
-  </si>
-  <si>
-    <t>Se expone seis audios, relacionados con una noticia,  a partir de las preguntas clave (Qué, quién, cómo, dónde, cuándo, por qué)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se sugiere, cinco botones con el nombre de un periódico característico de una región de Colombia, por ejemplo: El tiempo, Vanguardia liberal, El heraldo, El Colombiano, etc. Se específica internamente la región en la que tiene influencia, enlaces webs al periódico e información básico de su origen o que sea relevante para el periódico.  </t>
-  </si>
-  <si>
-    <t>Interactivo para profundizar en la obra de la autora Madre Francisca Josefa del Castillo, a partir del contexto en el cual se ha producido la obra</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
-  </si>
-  <si>
-    <t>La noticia en vivo: vive una experiencia periodística</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La noticia </t>
-  </si>
-  <si>
-    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar las definiciones de algunos arcaísmos con su respectivo significado</t>
+  </si>
+  <si>
+    <t>Actividad para clasificar los nombres de los periódicos nacionales y extranjeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para resolver un crucigrama relacionado con las normas lingüísticas </t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la importancia de las normas de la lengua  en las relaciones personales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que permite expresar una posición personal de  acuerdo a las variedades de la lengua </t>
+  </si>
+  <si>
+    <t>Interactivo que permite construir un periódico que muestre las variaciones que tiene la lengua en los diferentes contextos comunicativos</t>
+  </si>
+  <si>
+    <t>Actividad para evaluar los conocimientos de los estudiantes sobre el tema La literatura colombiana de la Colonia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,15 +1041,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,6 +1064,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1195,18 +1187,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,25 +1201,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1522,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,133 +1547,133 @@
     <col min="2" max="2" width="16.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="8" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.85546875" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="81.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="83.5703125" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="10" width="47.28515625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="67.140625" style="39" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="7" customWidth="1"/>
     <col min="13" max="13" width="14" style="7" customWidth="1"/>
     <col min="14" max="14" width="15.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="60" style="34" customWidth="1"/>
+    <col min="15" max="15" width="60" style="32" customWidth="1"/>
     <col min="16" max="16" width="21.140625" style="6" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="34"/>
+    <col min="18" max="18" width="18.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="33" t="s">
+    <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="10" t="s">
-        <v>174</v>
+      <c r="G3" s="40" t="s">
+        <v>270</v>
       </c>
       <c r="H3" s="14">
         <v>1</v>
@@ -1666,8 +1681,8 @@
       <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>175</v>
+      <c r="J3" s="48" t="s">
+        <v>171</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>69</v>
@@ -1679,8 +1694,8 @@
         <v>84</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="37" t="s">
-        <v>184</v>
+      <c r="O3" s="34" t="s">
+        <v>176</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>19</v>
@@ -1689,35 +1704,35 @@
         <v>6</v>
       </c>
       <c r="R3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="S3" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
-        <v>177</v>
+      <c r="G4" s="40" t="s">
+        <v>271</v>
       </c>
       <c r="H4" s="14">
         <v>2</v>
@@ -1725,8 +1740,8 @@
       <c r="I4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>243</v>
+      <c r="J4" s="48" t="s">
+        <v>219</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>69</v>
@@ -1738,8 +1753,8 @@
         <v>24</v>
       </c>
       <c r="N4" s="14"/>
-      <c r="O4" s="37" t="s">
-        <v>294</v>
+      <c r="O4" s="34" t="s">
+        <v>261</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>19</v>
@@ -1748,35 +1763,35 @@
         <v>6</v>
       </c>
       <c r="R4" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="U4" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>178</v>
+      <c r="G5" s="40" t="s">
+        <v>269</v>
       </c>
       <c r="H5" s="14">
         <v>3</v>
@@ -1784,8 +1799,8 @@
       <c r="I5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>285</v>
+      <c r="J5" s="48" t="s">
+        <v>253</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>69</v>
@@ -1797,8 +1812,8 @@
       <c r="N5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="37" t="s">
-        <v>277</v>
+      <c r="O5" s="34" t="s">
+        <v>246</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>19</v>
@@ -1807,35 +1822,35 @@
         <v>6</v>
       </c>
       <c r="R5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="S5" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="38" t="s">
-        <v>179</v>
+      <c r="G6" s="41" t="s">
+        <v>272</v>
       </c>
       <c r="H6" s="14">
         <v>4</v>
@@ -1843,8 +1858,8 @@
       <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>181</v>
+      <c r="J6" s="48" t="s">
+        <v>173</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>69</v>
@@ -1856,8 +1871,8 @@
         <v>79</v>
       </c>
       <c r="N6" s="14"/>
-      <c r="O6" s="37" t="s">
-        <v>189</v>
+      <c r="O6" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>19</v>
@@ -1866,35 +1881,35 @@
         <v>6</v>
       </c>
       <c r="R6" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="38" t="s">
-        <v>244</v>
+      <c r="G7" s="41" t="s">
+        <v>273</v>
       </c>
       <c r="H7" s="14">
         <v>5</v>
@@ -1902,8 +1917,8 @@
       <c r="I7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>182</v>
+      <c r="J7" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>69</v>
@@ -1915,8 +1930,8 @@
         <v>62</v>
       </c>
       <c r="N7" s="14"/>
-      <c r="O7" s="37" t="s">
-        <v>245</v>
+      <c r="O7" s="34" t="s">
+        <v>220</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>19</v>
@@ -1925,35 +1940,35 @@
         <v>6</v>
       </c>
       <c r="R7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="28" t="s">
-        <v>180</v>
+      <c r="G8" s="42" t="s">
+        <v>274</v>
       </c>
       <c r="H8" s="14">
         <v>6</v>
@@ -1961,8 +1976,8 @@
       <c r="I8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>183</v>
+      <c r="J8" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>69</v>
@@ -1974,8 +1989,8 @@
         <v>80</v>
       </c>
       <c r="N8" s="14"/>
-      <c r="O8" s="37" t="s">
-        <v>258</v>
+      <c r="O8" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>19</v>
@@ -1984,16 +1999,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="U8" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2001,7 +2016,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>92</v>
@@ -2010,11 +2025,11 @@
         <v>92</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>280</v>
+      <c r="G9" s="40" t="s">
+        <v>249</v>
       </c>
       <c r="H9" s="14">
         <v>7</v>
@@ -2022,8 +2037,8 @@
       <c r="I9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>190</v>
+      <c r="J9" s="48" t="s">
+        <v>182</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>69</v>
@@ -2035,8 +2050,8 @@
         <v>74</v>
       </c>
       <c r="N9" s="14"/>
-      <c r="O9" s="37" t="s">
-        <v>295</v>
+      <c r="O9" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>19</v>
@@ -2045,16 +2060,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2062,7 +2077,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>92</v>
@@ -2071,12 +2086,12 @@
         <v>92</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>93</v>
       </c>
       <c r="H10" s="14">
@@ -2085,7 +2100,7 @@
       <c r="I10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="48" t="s">
         <v>94</v>
       </c>
       <c r="K10" s="14" t="s">
@@ -2098,8 +2113,8 @@
       <c r="N10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="37" t="s">
-        <v>259</v>
+      <c r="O10" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>19</v>
@@ -2108,24 +2123,24 @@
         <v>6</v>
       </c>
       <c r="R10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="U10" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>92</v>
@@ -2134,12 +2149,12 @@
         <v>92</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>95</v>
       </c>
       <c r="H11" s="14">
@@ -2148,8 +2163,8 @@
       <c r="I11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>207</v>
+      <c r="J11" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>69</v>
@@ -2161,8 +2176,8 @@
       <c r="N11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="37" t="s">
-        <v>259</v>
+      <c r="O11" s="34" t="s">
+        <v>233</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>19</v>
@@ -2171,24 +2186,24 @@
         <v>6</v>
       </c>
       <c r="R11" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>92</v>
@@ -2197,13 +2212,13 @@
         <v>92</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>191</v>
+        <v>123</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="H12" s="14">
         <v>10</v>
@@ -2211,8 +2226,8 @@
       <c r="I12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>192</v>
+      <c r="J12" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>69</v>
@@ -2224,8 +2239,8 @@
         <v>23</v>
       </c>
       <c r="N12" s="14"/>
-      <c r="O12" s="37" t="s">
-        <v>193</v>
+      <c r="O12" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>19</v>
@@ -2234,24 +2249,24 @@
         <v>6</v>
       </c>
       <c r="R12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="U12" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>92</v>
@@ -2259,13 +2274,13 @@
       <c r="D13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>195</v>
+      <c r="E13" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>96</v>
       </c>
       <c r="H13" s="14">
@@ -2274,8 +2289,8 @@
       <c r="I13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>286</v>
+      <c r="J13" s="48" t="s">
+        <v>254</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>69</v>
@@ -2287,8 +2302,8 @@
         <v>60</v>
       </c>
       <c r="N13" s="14"/>
-      <c r="O13" s="37" t="s">
-        <v>193</v>
+      <c r="O13" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>19</v>
@@ -2297,16 +2312,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2314,7 +2329,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>92</v>
@@ -2322,13 +2337,13 @@
       <c r="D14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>195</v>
+      <c r="E14" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H14" s="14">
@@ -2337,8 +2352,8 @@
       <c r="I14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>269</v>
+      <c r="J14" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>69</v>
@@ -2350,8 +2365,8 @@
       <c r="N14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="37" t="s">
-        <v>273</v>
+      <c r="O14" s="34" t="s">
+        <v>243</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>20</v>
@@ -2360,24 +2375,24 @@
         <v>6</v>
       </c>
       <c r="R14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="U14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S14" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>92</v>
@@ -2385,13 +2400,13 @@
       <c r="D15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="37" t="s">
-        <v>195</v>
+      <c r="E15" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>98</v>
       </c>
       <c r="H15" s="14">
@@ -2400,8 +2415,8 @@
       <c r="I15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>274</v>
+      <c r="J15" s="48" t="s">
+        <v>293</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>69</v>
@@ -2413,8 +2428,8 @@
         <v>84</v>
       </c>
       <c r="N15" s="14"/>
-      <c r="O15" s="37" t="s">
-        <v>275</v>
+      <c r="O15" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>20</v>
@@ -2423,24 +2438,24 @@
         <v>6</v>
       </c>
       <c r="R15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="U15" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="S15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>92</v>
@@ -2448,13 +2463,13 @@
       <c r="D16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>195</v>
+      <c r="E16" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="14">
@@ -2463,8 +2478,8 @@
       <c r="I16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>299</v>
+      <c r="J16" s="48" t="s">
+        <v>266</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>69</v>
@@ -2476,8 +2491,8 @@
       <c r="N16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>276</v>
+      <c r="O16" s="34" t="s">
+        <v>245</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>20</v>
@@ -2486,24 +2501,24 @@
         <v>6</v>
       </c>
       <c r="R16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>92</v>
@@ -2511,14 +2526,14 @@
       <c r="D17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>195</v>
+      <c r="E17" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>100</v>
+        <v>125</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>276</v>
       </c>
       <c r="H17" s="14">
         <v>15</v>
@@ -2526,8 +2541,8 @@
       <c r="I17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>287</v>
+      <c r="J17" s="48" t="s">
+        <v>294</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>69</v>
@@ -2539,8 +2554,8 @@
         <v>59</v>
       </c>
       <c r="N17" s="14"/>
-      <c r="O17" s="37" t="s">
-        <v>193</v>
+      <c r="O17" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>19</v>
@@ -2549,16 +2564,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="U17" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2566,7 +2581,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>92</v>
@@ -2574,14 +2589,14 @@
       <c r="D18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>195</v>
+      <c r="E18" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>101</v>
+        <v>125</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="H18" s="14">
         <v>16</v>
@@ -2589,8 +2604,8 @@
       <c r="I18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>102</v>
+      <c r="J18" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>69</v>
@@ -2602,8 +2617,8 @@
       <c r="N18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="37" t="s">
-        <v>270</v>
+      <c r="O18" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>19</v>
@@ -2612,24 +2627,24 @@
         <v>6</v>
       </c>
       <c r="R18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="U18" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>92</v>
@@ -2638,11 +2653,11 @@
         <v>92</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>281</v>
+      <c r="G19" s="40" t="s">
+        <v>277</v>
       </c>
       <c r="H19" s="14">
         <v>17</v>
@@ -2650,8 +2665,8 @@
       <c r="I19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>196</v>
+      <c r="J19" s="48" t="s">
+        <v>295</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>69</v>
@@ -2662,9 +2677,9 @@
       <c r="M19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37" t="s">
-        <v>193</v>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>20</v>
@@ -2673,24 +2688,24 @@
         <v>6</v>
       </c>
       <c r="R19" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="U19" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="S19" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="U19" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>92</v>
@@ -2699,11 +2714,11 @@
         <v>92</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>282</v>
+      <c r="G20" s="40" t="s">
+        <v>250</v>
       </c>
       <c r="H20" s="14">
         <v>18</v>
@@ -2711,8 +2726,8 @@
       <c r="I20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="36" t="s">
-        <v>197</v>
+      <c r="J20" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>69</v>
@@ -2723,9 +2738,9 @@
       <c r="M20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37" t="s">
-        <v>193</v>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>19</v>
@@ -2734,24 +2749,24 @@
         <v>6</v>
       </c>
       <c r="R20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="U20" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="S20" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>92</v>
@@ -2760,11 +2775,11 @@
         <v>92</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
-        <v>263</v>
+      <c r="G21" s="40" t="s">
+        <v>278</v>
       </c>
       <c r="H21" s="14">
         <v>19</v>
@@ -2772,8 +2787,8 @@
       <c r="I21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="36" t="s">
-        <v>264</v>
+      <c r="J21" s="48" t="s">
+        <v>297</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>69</v>
@@ -2784,9 +2799,9 @@
       <c r="M21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37" t="s">
-        <v>266</v>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>19</v>
@@ -2795,16 +2810,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="U21" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2812,18 +2827,18 @@
         <v>68</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22" s="37"/>
+        <v>156</v>
+      </c>
+      <c r="E22" s="34"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="10" t="s">
-        <v>103</v>
+      <c r="G22" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="H22" s="14">
         <v>20</v>
@@ -2831,8 +2846,8 @@
       <c r="I22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="39" t="s">
-        <v>104</v>
+      <c r="J22" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>69</v>
@@ -2844,8 +2859,8 @@
       <c r="N22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="37" t="s">
-        <v>246</v>
+      <c r="O22" s="34" t="s">
+        <v>221</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>19</v>
@@ -2854,35 +2869,35 @@
         <v>6</v>
       </c>
       <c r="R22" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="U22" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S22" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="U22" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="37"/>
+        <v>156</v>
+      </c>
+      <c r="E23" s="34"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="10" t="s">
-        <v>106</v>
+      <c r="G23" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="H23" s="14">
         <v>21</v>
@@ -2890,8 +2905,8 @@
       <c r="I23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="39" t="s">
-        <v>105</v>
+      <c r="J23" s="49" t="s">
+        <v>298</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>69</v>
@@ -2903,8 +2918,8 @@
         <v>79</v>
       </c>
       <c r="N23" s="14"/>
-      <c r="O23" s="37" t="s">
-        <v>247</v>
+      <c r="O23" s="34" t="s">
+        <v>222</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>19</v>
@@ -2913,16 +2928,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="U23" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="U23" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2930,18 +2945,18 @@
         <v>68</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="37"/>
+        <v>156</v>
+      </c>
+      <c r="E24" s="34"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="10" t="s">
-        <v>107</v>
+      <c r="G24" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="H24" s="14">
         <v>22</v>
@@ -2949,8 +2964,8 @@
       <c r="I24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="39" t="s">
-        <v>288</v>
+      <c r="J24" s="49" t="s">
+        <v>255</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>69</v>
@@ -2962,8 +2977,8 @@
         <v>47</v>
       </c>
       <c r="N24" s="14"/>
-      <c r="O24" s="37" t="s">
-        <v>272</v>
+      <c r="O24" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="P24" s="14" t="s">
         <v>19</v>
@@ -2972,16 +2987,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="U24" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T24" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="U24" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2989,20 +3004,20 @@
         <v>68</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="20" t="s">
-        <v>265</v>
+      <c r="G25" s="43" t="s">
+        <v>237</v>
       </c>
       <c r="H25" s="14">
         <v>23</v>
@@ -3010,8 +3025,8 @@
       <c r="I25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="39" t="s">
-        <v>289</v>
+      <c r="J25" s="49" t="s">
+        <v>256</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>69</v>
@@ -3024,7 +3039,7 @@
       </c>
       <c r="N25" s="14"/>
       <c r="O25" s="20" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>19</v>
@@ -3033,16 +3048,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="U25" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="U25" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3050,18 +3065,18 @@
         <v>68</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="20" t="s">
-        <v>302</v>
+      <c r="G26" s="43" t="s">
+        <v>279</v>
       </c>
       <c r="H26" s="14">
         <v>24</v>
@@ -3069,8 +3084,8 @@
       <c r="I26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="36" t="s">
-        <v>290</v>
+      <c r="J26" s="48" t="s">
+        <v>257</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>69</v>
@@ -3083,7 +3098,7 @@
         <v>35</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>19</v>
@@ -3092,37 +3107,37 @@
         <v>6</v>
       </c>
       <c r="R26" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="U26" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S26" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="10" t="s">
-        <v>114</v>
+      <c r="G27" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="H27" s="14">
         <v>25</v>
@@ -3130,8 +3145,8 @@
       <c r="I27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="36" t="s">
-        <v>115</v>
+      <c r="J27" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>70</v>
@@ -3139,24 +3154,24 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="37"/>
+      <c r="O27" s="34"/>
       <c r="P27" s="14" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="U27" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3164,20 +3179,20 @@
         <v>68</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="10" t="s">
-        <v>108</v>
+      <c r="G28" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="H28" s="14">
         <v>26</v>
@@ -3185,8 +3200,8 @@
       <c r="I28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>200</v>
+      <c r="J28" s="48" t="s">
+        <v>189</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>69</v>
@@ -3198,8 +3213,8 @@
         <v>24</v>
       </c>
       <c r="N28" s="14"/>
-      <c r="O28" s="37" t="s">
-        <v>203</v>
+      <c r="O28" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>19</v>
@@ -3208,16 +3223,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="U28" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="U28" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3225,20 +3240,20 @@
         <v>68</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="20" t="s">
-        <v>201</v>
+      <c r="G29" s="43" t="s">
+        <v>280</v>
       </c>
       <c r="H29" s="14">
         <v>27</v>
@@ -3246,8 +3261,8 @@
       <c r="I29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>291</v>
+      <c r="J29" s="48" t="s">
+        <v>258</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>69</v>
@@ -3260,7 +3275,7 @@
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="20" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>20</v>
@@ -3269,16 +3284,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="U29" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="U29" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="270" x14ac:dyDescent="0.25">
@@ -3286,20 +3301,20 @@
         <v>68</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="41" t="s">
-        <v>301</v>
+      <c r="G30" s="43" t="s">
+        <v>281</v>
       </c>
       <c r="H30" s="14">
         <v>28</v>
@@ -3307,8 +3322,8 @@
       <c r="I30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>206</v>
+      <c r="J30" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>69</v>
@@ -3320,8 +3335,8 @@
       <c r="N30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="42" t="s">
-        <v>278</v>
+      <c r="O30" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>19</v>
@@ -3330,37 +3345,37 @@
         <v>6</v>
       </c>
       <c r="R30" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="U30" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="S30" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F31" s="14"/>
-      <c r="G31" s="10" t="s">
-        <v>283</v>
+      <c r="G31" s="40" t="s">
+        <v>251</v>
       </c>
       <c r="H31" s="14">
         <v>29</v>
@@ -3368,8 +3383,8 @@
       <c r="I31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="36" t="s">
-        <v>292</v>
+      <c r="J31" s="48" t="s">
+        <v>259</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>69</v>
@@ -3380,9 +3395,9 @@
       <c r="M31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37" t="s">
-        <v>249</v>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34" t="s">
+        <v>224</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>19</v>
@@ -3391,16 +3406,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="U31" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="S31" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T31" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="U31" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3408,20 +3423,20 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="10" t="s">
-        <v>112</v>
+      <c r="G32" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="H32" s="14">
         <v>30</v>
@@ -3429,8 +3444,8 @@
       <c r="I32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>212</v>
+      <c r="J32" s="48" t="s">
+        <v>199</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>69</v>
@@ -3442,8 +3457,8 @@
         <v>76</v>
       </c>
       <c r="N32" s="14"/>
-      <c r="O32" s="37" t="s">
-        <v>214</v>
+      <c r="O32" s="34" t="s">
+        <v>201</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>19</v>
@@ -3452,16 +3467,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="U32" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T32" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="U32" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3469,20 +3484,20 @@
         <v>68</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>208</v>
+      <c r="G33" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="H33" s="14">
         <v>31</v>
@@ -3490,8 +3505,8 @@
       <c r="I33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>209</v>
+      <c r="J33" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>69</v>
@@ -3503,8 +3518,8 @@
       <c r="N33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O33" s="37" t="s">
-        <v>250</v>
+      <c r="O33" s="34" t="s">
+        <v>225</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>19</v>
@@ -3513,37 +3528,37 @@
         <v>6</v>
       </c>
       <c r="R33" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="U33" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="S33" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="T33" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="U33" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="37"/>
+        <v>160</v>
+      </c>
+      <c r="E34" s="34"/>
       <c r="F34" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>215</v>
+        <v>164</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="H34" s="14">
         <v>32</v>
@@ -3551,8 +3566,8 @@
       <c r="I34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="36" t="s">
-        <v>216</v>
+      <c r="J34" s="48" t="s">
+        <v>202</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>69</v>
@@ -3565,7 +3580,7 @@
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="25" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>19</v>
@@ -3574,37 +3589,37 @@
         <v>6</v>
       </c>
       <c r="R34" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="U34" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S34" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T34" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="U34" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="23" t="s">
-        <v>111</v>
+      <c r="G35" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="H35" s="14">
         <v>33</v>
@@ -3612,8 +3627,8 @@
       <c r="I35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="36" t="s">
-        <v>210</v>
+      <c r="J35" s="48" t="s">
+        <v>197</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>69</v>
@@ -3625,8 +3640,8 @@
       <c r="N35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O35" s="40" t="s">
-        <v>298</v>
+      <c r="O35" s="35" t="s">
+        <v>265</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
@@ -3635,37 +3650,37 @@
         <v>6</v>
       </c>
       <c r="R35" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="U35" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="S35" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="T35" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="23" t="s">
-        <v>113</v>
+      <c r="G36" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="H36" s="14">
         <v>34</v>
@@ -3673,8 +3688,8 @@
       <c r="I36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="36" t="s">
-        <v>218</v>
+      <c r="J36" s="50" t="s">
+        <v>299</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>69</v>
@@ -3687,7 +3702,7 @@
       </c>
       <c r="N36" s="14"/>
       <c r="O36" s="25" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>19</v>
@@ -3696,37 +3711,37 @@
         <v>6</v>
       </c>
       <c r="R36" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="U36" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S36" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T36" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="20" t="s">
-        <v>284</v>
+      <c r="G37" s="43" t="s">
+        <v>252</v>
       </c>
       <c r="H37" s="14">
         <v>35</v>
@@ -3734,8 +3749,8 @@
       <c r="I37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="36" t="s">
-        <v>293</v>
+      <c r="J37" s="48" t="s">
+        <v>260</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>69</v>
@@ -3748,7 +3763,7 @@
       </c>
       <c r="N37" s="14"/>
       <c r="O37" s="20" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="P37" s="14" t="s">
         <v>19</v>
@@ -3757,37 +3772,37 @@
         <v>6</v>
       </c>
       <c r="R37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="U37" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S37" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T37" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="10" t="s">
-        <v>229</v>
+      <c r="G38" s="40" t="s">
+        <v>211</v>
       </c>
       <c r="H38" s="14">
         <v>36</v>
@@ -3795,8 +3810,8 @@
       <c r="I38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="36" t="s">
-        <v>228</v>
+      <c r="J38" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>69</v>
@@ -3808,8 +3823,8 @@
         <v>23</v>
       </c>
       <c r="N38" s="14"/>
-      <c r="O38" s="37" t="s">
-        <v>252</v>
+      <c r="O38" s="34" t="s">
+        <v>227</v>
       </c>
       <c r="P38" s="14" t="s">
         <v>19</v>
@@ -3818,37 +3833,37 @@
         <v>6</v>
       </c>
       <c r="R38" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="U38" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S38" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T38" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="U38" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="28" t="s">
-        <v>227</v>
+      <c r="G39" s="42" t="s">
+        <v>209</v>
       </c>
       <c r="H39" s="14">
         <v>37</v>
@@ -3856,8 +3871,8 @@
       <c r="I39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="36" t="s">
-        <v>223</v>
+      <c r="J39" s="48" t="s">
+        <v>208</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>70</v>
@@ -3865,45 +3880,45 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
-      <c r="O39" s="37"/>
+      <c r="O39" s="34"/>
       <c r="P39" s="14" t="s">
         <v>19</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R39" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="S39" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="S39" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="T39" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="10" t="s">
-        <v>232</v>
+      <c r="G40" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="H40" s="14">
         <v>38</v>
@@ -3911,8 +3926,8 @@
       <c r="I40" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="36" t="s">
-        <v>233</v>
+      <c r="J40" s="48" t="s">
+        <v>300</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>69</v>
@@ -3924,8 +3939,8 @@
         <v>24</v>
       </c>
       <c r="N40" s="14"/>
-      <c r="O40" s="37" t="s">
-        <v>253</v>
+      <c r="O40" s="34" t="s">
+        <v>228</v>
       </c>
       <c r="P40" s="14" t="s">
         <v>19</v>
@@ -3934,37 +3949,37 @@
         <v>6</v>
       </c>
       <c r="R40" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S40" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="U40" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S40" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T40" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="U40" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="10" t="s">
-        <v>225</v>
+      <c r="G41" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="H41" s="14">
         <v>39</v>
@@ -3972,8 +3987,8 @@
       <c r="I41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="36" t="s">
-        <v>230</v>
+      <c r="J41" s="48" t="s">
+        <v>301</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>69</v>
@@ -3985,8 +4000,8 @@
       <c r="N41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O41" s="37" t="s">
-        <v>254</v>
+      <c r="O41" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>19</v>
@@ -3995,37 +4010,37 @@
         <v>6</v>
       </c>
       <c r="R41" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="S41" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="U41" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="S41" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="T41" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="U41" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>268</v>
+      <c r="G42" s="40" t="s">
+        <v>285</v>
       </c>
       <c r="H42" s="14">
         <v>40</v>
@@ -4033,8 +4048,8 @@
       <c r="I42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="36" t="s">
-        <v>256</v>
+      <c r="J42" s="48" t="s">
+        <v>302</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>69</v>
@@ -4047,7 +4062,7 @@
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="P42" s="14" t="s">
         <v>19</v>
@@ -4056,35 +4071,35 @@
         <v>6</v>
       </c>
       <c r="R42" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="U42" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="S42" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>176</v>
+      <c r="B43" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="10" t="s">
-        <v>242</v>
+        <v>170</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="40" t="s">
+        <v>286</v>
       </c>
       <c r="H43" s="14">
         <v>41</v>
@@ -4092,8 +4107,8 @@
       <c r="I43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="36" t="s">
-        <v>257</v>
+      <c r="J43" s="48" t="s">
+        <v>231</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>69</v>
@@ -4104,9 +4119,9 @@
       <c r="M43" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="37" t="s">
-        <v>193</v>
+      <c r="N43" s="28"/>
+      <c r="O43" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="P43" s="14" t="s">
         <v>19</v>
@@ -4115,35 +4130,35 @@
         <v>6</v>
       </c>
       <c r="R43" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="U43" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S43" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T43" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="U43" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>176</v>
+      <c r="B44" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="10" t="s">
-        <v>109</v>
+        <v>170</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="40" t="s">
+        <v>287</v>
       </c>
       <c r="H44" s="14">
         <v>42</v>
@@ -4151,8 +4166,8 @@
       <c r="I44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="36" t="s">
-        <v>110</v>
+      <c r="J44" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>69</v>
@@ -4163,9 +4178,9 @@
       <c r="M44" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="29"/>
-      <c r="O44" s="37" t="s">
-        <v>279</v>
+      <c r="N44" s="28"/>
+      <c r="O44" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="P44" s="14" t="s">
         <v>19</v>
@@ -4174,35 +4189,35 @@
         <v>6</v>
       </c>
       <c r="R44" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="S44" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="T44" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="U44" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="S44" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="T44" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="U44" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>176</v>
+      <c r="B45" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="23" t="s">
-        <v>224</v>
+        <v>170</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="45" t="s">
+        <v>288</v>
       </c>
       <c r="H45" s="14">
         <v>43</v>
@@ -4210,8 +4225,8 @@
       <c r="I45" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="39" t="s">
-        <v>237</v>
+      <c r="J45" s="49" t="s">
+        <v>215</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>69</v>
@@ -4224,7 +4239,7 @@
       </c>
       <c r="N45" s="25"/>
       <c r="O45" s="25" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="P45" s="24" t="s">
         <v>19</v>
@@ -4233,35 +4248,35 @@
         <v>6</v>
       </c>
       <c r="R45" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S45" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="U45" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S45" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T45" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="U45" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>176</v>
+      <c r="B46" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="23" t="s">
-        <v>226</v>
+        <v>170</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="45" t="s">
+        <v>289</v>
       </c>
       <c r="H46" s="14">
         <v>44</v>
@@ -4269,8 +4284,8 @@
       <c r="I46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="39" t="s">
-        <v>236</v>
+      <c r="J46" s="49" t="s">
+        <v>303</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>69</v>
@@ -4283,7 +4298,7 @@
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="25" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="P46" s="24" t="s">
         <v>19</v>
@@ -4292,16 +4307,16 @@
         <v>6</v>
       </c>
       <c r="R46" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S46" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="U46" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="S46" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T46" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="U46" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -4309,17 +4324,17 @@
         <v>68</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="E47" s="34"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="46" t="s">
         <v>91</v>
       </c>
       <c r="H47" s="14">
@@ -4328,8 +4343,8 @@
       <c r="I47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="39" t="s">
-        <v>240</v>
+      <c r="J47" s="49" t="s">
+        <v>218</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>69</v>
@@ -4347,22 +4362,22 @@
       <c r="T47" s="24"/>
       <c r="U47" s="24"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E48" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="E48" s="34"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="46" t="s">
         <v>90</v>
       </c>
       <c r="H48" s="14">
@@ -4371,8 +4386,8 @@
       <c r="I48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="39" t="s">
-        <v>241</v>
+      <c r="J48" s="49" t="s">
+        <v>304</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>69</v>
@@ -4385,7 +4400,7 @@
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="23" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="P48" s="24" t="s">
         <v>19</v>
@@ -4394,42 +4409,44 @@
         <v>6</v>
       </c>
       <c r="R48" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="S48" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="U48" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="S48" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="T48" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="U48" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="37"/>
+      <c r="D49" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="34"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="G49" s="47" t="s">
+        <v>290</v>
+      </c>
       <c r="H49" s="14">
         <v>47</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="36" t="s">
-        <v>187</v>
+      <c r="J49" s="48" t="s">
+        <v>179</v>
       </c>
       <c r="K49" s="14" t="s">
         <v>69</v>
@@ -4441,8 +4458,8 @@
         <v>63</v>
       </c>
       <c r="N49" s="14"/>
-      <c r="O49" s="37" t="s">
-        <v>261</v>
+      <c r="O49" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>20</v>
@@ -4451,27 +4468,25 @@
         <v>6</v>
       </c>
       <c r="R49" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="U49" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="S49" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T49" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="U49" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -4480,11 +4495,13 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion02/ESCALETA_LE_08_02_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amparo\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_02_CO\PROCESOS Y ESCALETAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="304">
   <si>
     <t>Asignatura</t>
   </si>
@@ -306,74 +306,24 @@
     <t>La literatura colombiana de la Colonia</t>
   </si>
   <si>
-    <t>El contexto social durante la Colonia</t>
-  </si>
-  <si>
-    <t>Interactivo que expone el contexto social durante la Colonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">El espíritu y las ideas durante la Colonia </t>
   </si>
   <si>
-    <t>Reconoce el contexto de la literatura en España y en la Nueva Granada durante la Colonia</t>
-  </si>
-  <si>
     <t>El Carnero</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Analiza la obra </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desierto prodigioso y prodigio del desierto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, de Pedro Solís y Valenzuela</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">La obra de la Madre Francisca Josefa del Castillo </t>
   </si>
   <si>
     <t xml:space="preserve">Domínguez Camargo: ¿Heredero barroco o barroco americano? </t>
   </si>
   <si>
-    <t>Interactivo para profundizar en la obra de Hernando Domínguez Camargo</t>
-  </si>
-  <si>
     <t>Los arcaísmos</t>
   </si>
   <si>
-    <t>Interactivo que invita a los estudiantes a reconocer los arcaísmos</t>
-  </si>
-  <si>
     <t>Relaciona los arcaísmos</t>
   </si>
   <si>
-    <t>Determina el arcaísmo del qué se trata</t>
-  </si>
-  <si>
-    <t>Reconoce las características de una noticia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para organizar una noticia a partir de una imagen </t>
-  </si>
-  <si>
     <t>¿Qué periódicos hay en Colombia?</t>
   </si>
   <si>
@@ -563,18 +513,9 @@
     <t xml:space="preserve">Competencias </t>
   </si>
   <si>
-    <t>Actividad para comparar textos literarios de la Colonia</t>
-  </si>
-  <si>
     <t>LE_08_02_CO</t>
   </si>
   <si>
-    <t>Actividad para reconocer los tipos de textos literarios que se utilizaron durante la Colonia</t>
-  </si>
-  <si>
-    <t>Actividad para determinar las características de la Colonia a partir de la lectura de fragmentos literarios</t>
-  </si>
-  <si>
     <t>Actividad para clasificar textos literarios a partir de la identificación del tipo de lengua implementado</t>
   </si>
   <si>
@@ -587,21 +528,12 @@
     <t>Recurso M101AP-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividades para repasar los contenidos del tema La literatura colombiana de la Colonia </t>
-  </si>
-  <si>
     <t>Recurso M3B1-01</t>
   </si>
   <si>
     <t>Se presentan tres fragmentos literarios en audio de diferentes tipos de textos y/o géneros literarios para que los estudiantes los relacionen con el género literario respectivo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para conocer en qué consistió la literatura de la Conquista </t>
-  </si>
-  <si>
-    <t>Actividad para identificar el contexto cultural de la época colonial en la Nueva Granada</t>
-  </si>
-  <si>
     <t>Recurso elaborado por  el autor. Aprobado para digitalizar.</t>
   </si>
   <si>
@@ -617,9 +549,6 @@
     <t>Recurso M13B-02</t>
   </si>
   <si>
-    <t>Actividad para reconocer las características de una noticia</t>
-  </si>
-  <si>
     <t>Recurso F4-03</t>
   </si>
   <si>
@@ -632,15 +561,9 @@
     <t>Recurso M101A-02</t>
   </si>
   <si>
-    <t>Interactivo para elaborar una noticia a partir de las características y estructura vista durante el desarrollo de tema</t>
-  </si>
-  <si>
     <t>La evolución de periodismo en Colombia</t>
   </si>
   <si>
-    <t>Interactivo que evidencia algunas etapas del periodismo en Colombia</t>
-  </si>
-  <si>
     <t>Interactivo para conocer nombres y  zona de influencia de algunos periódicos colombianos</t>
   </si>
   <si>
@@ -656,9 +579,6 @@
     <t>Seleccionar dos párrafos encaminados a definir el concepto de periodismo y sus características. A su vez se seleccionan algunas palabras para que el estudiante tenga la oportunidad de completarlo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para identificar el nombre de los primeros periódicos colombianos </t>
-  </si>
-  <si>
     <t>Recurso M11A-02</t>
   </si>
   <si>
@@ -674,18 +594,12 @@
     <t>Recurso M4A-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividades que permite reconocer la variedad de la lengua desde el contexto poético </t>
-  </si>
-  <si>
     <t xml:space="preserve">Practica las variedades de la lengua </t>
   </si>
   <si>
     <t>Actividad para fortalecer los conocimientos relacionados con el periodismo y la libertad de expresión</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Determina las características de la libertad de expresión</t>
-  </si>
-  <si>
     <t>Recurso F7B-01</t>
   </si>
   <si>
@@ -695,9 +609,6 @@
     <t>Recurso M101A-04</t>
   </si>
   <si>
-    <t>Actividad para relacionar situaciones narradas en el audio con un estilo periodístico</t>
-  </si>
-  <si>
     <t>Se exponen cinco audios que narran noticias cortas para relacionarlas con los siguientes estilos periodísticos: estilo de opinión, estilo ameno o estilo informativo.</t>
   </si>
   <si>
@@ -707,9 +618,6 @@
     <t>Mapa conceptual del tema La literatura colombiana de la Colonia</t>
   </si>
   <si>
-    <t>Actividad que permite reconocer los arcaísmos en un texto literario a partir del significado</t>
-  </si>
-  <si>
     <t>Se expone un fragmento literario con cuatro preguntas para que el estudiante infiera las características del texto y las relacione con la Colonia.</t>
   </si>
   <si>
@@ -743,9 +651,6 @@
     <t>Cinco preguntas de interpretación y de argumentación relacionadas con el papel del periodismo en Colombia.</t>
   </si>
   <si>
-    <t>Actividad que permite repasar aspectos culturales del mestizaje, a partir de la construcción de un texto</t>
-  </si>
-  <si>
     <t>Se exponen cuatro fragmentos de textos literarios y no literarios para que los estudiantes identifiquen cuales pertenecen a una lengua culta y cuales a una lengua popular.</t>
   </si>
   <si>
@@ -759,9 +664,6 @@
   </si>
   <si>
     <t>Recurso M4A-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Selecciona el arcaísmo </t>
   </si>
   <si>
     <t>Tres preguntas relacionadas con el tema de literatura desarrollado durante la sección.</t>
@@ -804,27 +706,9 @@
 conclusiones coherentes.</t>
   </si>
   <si>
-    <t>Reconoce en qué consistió la literatura de la Conquista</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Representantes de la literatura de la Colonia en Colombia</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Justifica la importancia de la noticia como elemento de comunicación oral</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Analiza el papel del periodismo en Colombia</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para narrar de manera oral una noticia  a partir de imágenes </t>
-  </si>
-  <si>
-    <t>Actividad que invita a los estudiantes a completar oraciones sobre la literatura de la Época colonial en España y en Colombia</t>
-  </si>
-  <si>
-    <t>Actividad para descubrir el arcaísmo a partir de  las pistas expuestas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad para señalar los arcaísmos utilizados en un texto </t>
   </si>
   <si>
@@ -855,42 +739,15 @@
     <t xml:space="preserve">Se sugiere, cinco botones con el nombre de un periódico característico de una región de Colombia, por ejemplo: El tiempo, Vanguardia liberal, El heraldo, El Colombiano, etc. Se específica internamente la región en la que tiene influencia, enlaces webs al periódico e información básico de su origen o que sea relevante para el periódico.  </t>
   </si>
   <si>
-    <t>Interactivo para profundizar en la obra de la autora Madre Francisca Josefa del Castillo, a partir del contexto en el cual se ha producido la obra</t>
-  </si>
-  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
     <t>Fin de tema</t>
   </si>
   <si>
-    <t>Expresión oral: narra una noticia</t>
-  </si>
-  <si>
-    <t>Literatura: compara textos coloniales</t>
-  </si>
-  <si>
-    <t>Semántica: identifica los arcaísmos</t>
-  </si>
-  <si>
-    <t>Comprensión textual: reconoce las tipologías textuales en la literatura Colonial</t>
-  </si>
-  <si>
-    <t>Comprensión textual: determina las características de la Colonia</t>
-  </si>
-  <si>
-    <t>Ética de la comunicación: diferencia la literatura culta de la literatura popular</t>
-  </si>
-  <si>
     <t>Identifica el concepto estético y artístico de la Colonia</t>
   </si>
   <si>
-    <t>Comprende el estilo de la obra Elegía de Varones Ilustres de Indias, de Juan de Castellanos</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Reconoce las características de la Colonia en Colombia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: Comprueba tus conocimientos en literatura de la Colonia en Colombia </t>
   </si>
   <si>
@@ -903,21 +760,12 @@
     <t>La noticia en directo: vive una experiencia periodística</t>
   </si>
   <si>
-    <t>Identifica los primeros periódicos nacionales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identifica las normas lingüísticas  </t>
   </si>
   <si>
-    <t>Las normas de la lengua  en la socialización</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: Analiza y justifica el uso de las variedades de la lengua </t>
   </si>
   <si>
-    <t>Literatura:  la cultura popular y el mestizaje cultural</t>
-  </si>
-  <si>
     <t>Expresión oral: organizo una noticia</t>
   </si>
   <si>
@@ -933,63 +781,176 @@
     <t>Interactivo que presenta dos momentos del periodo Colonial: el Barroco y la Ilustración</t>
   </si>
   <si>
-    <t xml:space="preserve"> Interactivo para profundizar en la comprensión de textos: El Carnero </t>
-  </si>
-  <si>
-    <t>Actividad para conocer y analizar elementos de la obra de Pedro Solís y Valenzuela</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer los adjetivos utilizados como herramienta de estilo de la obra Elegía de Varones Ilustres de Indias</t>
-  </si>
-  <si>
-    <t>Actividad para completar un párrafo relacionado con la literatura de la Colonia en Colombia</t>
-  </si>
-  <si>
     <t>Actividad para reconocer los principales representantes de la literatura de la Colonia en Colombia</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Actividad para verificar lo aprendido del tema </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La literatura de la Colonia en Colombia</t>
-    </r>
-  </si>
-  <si>
-    <t>Actividad para relacionar las definiciones de algunos arcaísmos con su respectivo significado</t>
-  </si>
-  <si>
     <t>Actividad para clasificar los nombres de los periódicos nacionales y extranjeros</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad para resolver un crucigrama relacionado con las normas lingüísticas </t>
   </si>
   <si>
-    <t>Actividad para reconocer la importancia de las normas de la lengua  en las relaciones personales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad que permite expresar una posición personal de  acuerdo a las variedades de la lengua </t>
   </si>
   <si>
     <t>Interactivo que permite construir un periódico que muestre las variaciones que tiene la lengua en los diferentes contextos comunicativos</t>
   </si>
   <si>
-    <t>Actividad para evaluar los conocimientos de los estudiantes sobre el tema La literatura colombiana de la Colonia</t>
+    <t>Literatura: reconoce la literatura colonial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expresión oral: los titulares en las noticias </t>
+  </si>
+  <si>
+    <t>Comprensión textual: la literatura en la época colonial</t>
+  </si>
+  <si>
+    <t>Comprensión textual: la sociedad, la cultura y la política en la Colonia</t>
+  </si>
+  <si>
+    <t>Ética: diferencia la literatura culta de la  popular</t>
+  </si>
+  <si>
+    <t>Relaciona sucesos de la Conquista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El contexto social e histórico  durante la Colonia </t>
+  </si>
+  <si>
+    <t>Reconoce el contexto de la literatura colonial</t>
+  </si>
+  <si>
+    <t>Analiza fragmentos literarios de Pedro Solís y Valenzuela</t>
+  </si>
+  <si>
+    <t>Comprende el estilo de Juan  de Castellanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Reconoce las características de la Colonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Representantes de la literatura de la Colonia </t>
+  </si>
+  <si>
+    <t>Selecciona el término adecuado</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Señala los arcaísmos</t>
+  </si>
+  <si>
+    <t>Reconoce las partes de una noticia</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La noticia como elemento de comunicación oral</t>
+  </si>
+  <si>
+    <t>Conoce los primeros periódicos nacionales</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La libertad de expresión</t>
+  </si>
+  <si>
+    <t>Las normas de lenguaje  en la socialización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura:  la cultura y  el mestizaje </t>
+  </si>
+  <si>
+    <t>Actividad para explorar textos coloniales e identificar algunas características de la Colonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que permite reconocer el significado de algunos arcaísmos en un texto literario </t>
+  </si>
+  <si>
+    <t>Actividad que permite relacionar titulares e imágenes  para narrar una noticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar  los géneros literarios  de la Colonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reconocer las características de la Colonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad  para completar  frases relacionadas  con  el periodo de la Conquista. </t>
+  </si>
+  <si>
+    <t>Interactivo que expone las características de la sociedad durante la Colonia</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer los elementos del arte en la Nueva Granada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad  que afianza saberes sobre la literatura colonial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interactivo para profundizar en la comprensión de crónicas en la Colonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para conocer y analizar elementos de la novela de Pedro Solís y Valenzuela    </t>
+  </si>
+  <si>
+    <t>Interactivo para profundizar en la obra de la Madre Francisca Josefa del Castillo</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la herramienta de estilo de la obra de Castellanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para profundizar en la obra de Hernando Domínguez Camargo   </t>
+  </si>
+  <si>
+    <t>Actividad para caracterizar la literatura de la Colonia en Colombia</t>
+  </si>
+  <si>
+    <t>Actividad para verificar lo aprendido del tema La literatura de la Colonia en Colombia</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reconocer los arcaísmos en diferentes contextos</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar arcaísmos con su respectivo significado</t>
+  </si>
+  <si>
+    <t>Actividad para vincular el arcaísmo con un término del español actual</t>
+  </si>
+  <si>
+    <t>Actividad para clasificar los elementos clave de una noticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para elaborar una noticia a partir de su estructura </t>
+  </si>
+  <si>
+    <t>Interactivo que evidencia las etapas del periodismo en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reconocer  el nombre de los primeros periódicos colombianos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que permite reconocer la variedad de la lengua desde el contexto poético </t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la importancia de mantener normas de lenguaje en las relaciones personales</t>
+  </si>
+  <si>
+    <t>Actividad que permite reforzar los aspectos culturales del mestizaje, a partir de la construcción de un texto</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar una noticia en contexto</t>
+  </si>
+  <si>
+    <t>Actividad para  distinguir los estilos periodísticos</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema  La literatura colombiana de la Colonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades sobre el tema La literatura colombiana de la Colonia </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,12 +962,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1027,14 +982,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1042,7 +989,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,12 +1011,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1136,13 +1077,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,13 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,26 +1113,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,47 +1149,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1460,7 @@
     <col min="7" max="7" width="83.5703125" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="10" width="67.140625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="67.140625" style="37" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" style="7" customWidth="1"/>
     <col min="13" max="13" width="14" style="7" customWidth="1"/>
@@ -1568,121 +1476,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
       <c r="M2" s="31" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="36">
         <v>1</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="48" t="s">
-        <v>171</v>
+      <c r="J3" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>69</v>
@@ -1695,7 +1603,7 @@
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="34" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>19</v>
@@ -1704,16 +1612,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1721,27 +1629,27 @@
         <v>68</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="G4" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="36">
         <v>2</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="48" t="s">
-        <v>219</v>
+      <c r="J4" s="36" t="s">
+        <v>275</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>69</v>
@@ -1754,7 +1662,7 @@
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="34" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>19</v>
@@ -1763,16 +1671,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,27 +1688,27 @@
         <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="36">
         <v>3</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>253</v>
+      <c r="I5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>69</v>
@@ -1813,7 +1721,7 @@
         <v>35</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>19</v>
@@ -1822,44 +1730,44 @@
         <v>6</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="36">
         <v>4</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="48" t="s">
-        <v>173</v>
+      <c r="J6" s="36" t="s">
+        <v>277</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>69</v>
@@ -1872,7 +1780,7 @@
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="34" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>19</v>
@@ -1881,44 +1789,44 @@
         <v>6</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="36">
         <v>5</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="48" t="s">
-        <v>174</v>
+      <c r="J7" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>69</v>
@@ -1931,7 +1839,7 @@
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="34" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>19</v>
@@ -1940,16 +1848,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1957,27 +1865,27 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="36">
         <v>6</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="48" t="s">
-        <v>175</v>
+      <c r="J8" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>69</v>
@@ -1990,7 +1898,7 @@
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="34" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>19</v>
@@ -1999,24 +1907,24 @@
         <v>6</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>92</v>
@@ -2025,20 +1933,20 @@
         <v>92</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="H9" s="14">
+      <c r="G9" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="36">
         <v>7</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="48" t="s">
-        <v>182</v>
+      <c r="J9" s="36" t="s">
+        <v>279</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>69</v>
@@ -2051,7 +1959,7 @@
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="34" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>19</v>
@@ -2060,24 +1968,24 @@
         <v>6</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>92</v>
@@ -2086,22 +1994,22 @@
         <v>92</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="14">
+        <v>113</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="36">
         <v>8</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>94</v>
+      <c r="I10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>280</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>69</v>
@@ -2114,7 +2022,7 @@
         <v>42</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>19</v>
@@ -2123,16 +2031,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2140,7 +2048,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>92</v>
@@ -2149,22 +2057,22 @@
         <v>92</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="14">
+        <v>114</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="36">
         <v>9</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>291</v>
+      <c r="I11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>69</v>
@@ -2177,7 +2085,7 @@
         <v>40</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>19</v>
@@ -2186,24 +2094,24 @@
         <v>6</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>92</v>
@@ -2212,22 +2120,22 @@
         <v>92</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="H12" s="14">
+        <v>114</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="36">
         <v>10</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="48" t="s">
-        <v>183</v>
+      <c r="J12" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>69</v>
@@ -2240,7 +2148,7 @@
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="34" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>19</v>
@@ -2249,24 +2157,24 @@
         <v>6</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>92</v>
@@ -2275,22 +2183,22 @@
         <v>92</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="14">
+        <v>114</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="36">
         <v>11</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="48" t="s">
-        <v>254</v>
+      <c r="J13" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>69</v>
@@ -2303,7 +2211,7 @@
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="34" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>19</v>
@@ -2312,16 +2220,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>135</v>
-      </c>
       <c r="U13" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2329,7 +2237,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>92</v>
@@ -2338,22 +2246,22 @@
         <v>92</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="14">
+        <v>115</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="36">
         <v>12</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>292</v>
+      <c r="I14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>283</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>69</v>
@@ -2366,7 +2274,7 @@
         <v>37</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>20</v>
@@ -2375,16 +2283,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2392,7 +2300,7 @@
         <v>68</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>92</v>
@@ -2401,22 +2309,22 @@
         <v>92</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="14">
+        <v>115</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="36">
         <v>13</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="48" t="s">
-        <v>293</v>
+      <c r="J15" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>69</v>
@@ -2429,7 +2337,7 @@
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="34" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>20</v>
@@ -2438,16 +2346,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2455,7 +2363,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>92</v>
@@ -2464,22 +2372,22 @@
         <v>92</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="14">
+        <v>115</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="36">
         <v>14</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>266</v>
+      <c r="I16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>285</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>69</v>
@@ -2492,7 +2400,7 @@
         <v>37</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>20</v>
@@ -2501,16 +2409,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2518,7 +2426,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>92</v>
@@ -2527,22 +2435,22 @@
         <v>92</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="14">
+        <v>116</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="36">
         <v>15</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="48" t="s">
-        <v>294</v>
+      <c r="J17" s="36" t="s">
+        <v>286</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>69</v>
@@ -2555,7 +2463,7 @@
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="34" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>19</v>
@@ -2564,16 +2472,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2581,7 +2489,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>92</v>
@@ -2590,22 +2498,22 @@
         <v>92</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="14">
+        <v>116</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="36">
         <v>16</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>101</v>
+      <c r="I18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>287</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>69</v>
@@ -2618,7 +2526,7 @@
         <v>36</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>19</v>
@@ -2627,24 +2535,24 @@
         <v>6</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="T18" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="U18" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>92</v>
@@ -2653,20 +2561,20 @@
         <v>92</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="H19" s="14">
+      <c r="G19" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="36">
         <v>17</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="48" t="s">
-        <v>295</v>
+      <c r="J19" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>69</v>
@@ -2679,7 +2587,7 @@
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>20</v>
@@ -2688,16 +2596,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2705,7 +2613,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>92</v>
@@ -2714,20 +2622,20 @@
         <v>92</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" s="14">
+      <c r="G20" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="36">
         <v>18</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="48" t="s">
-        <v>296</v>
+      <c r="J20" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>69</v>
@@ -2740,7 +2648,7 @@
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>19</v>
@@ -2749,16 +2657,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S20" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2766,7 +2674,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>92</v>
@@ -2775,20 +2683,20 @@
         <v>92</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="H21" s="14">
-        <v>19</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="36">
+        <v>19</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="48" t="s">
-        <v>297</v>
+      <c r="J21" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>69</v>
@@ -2801,7 +2709,7 @@
       </c>
       <c r="N21" s="34"/>
       <c r="O21" s="34" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>19</v>
@@ -2810,16 +2718,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2827,27 +2735,27 @@
         <v>68</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="14">
+      <c r="G22" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="36">
         <v>20</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="49" t="s">
-        <v>103</v>
+      <c r="I22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>69</v>
@@ -2860,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>19</v>
@@ -2869,44 +2777,44 @@
         <v>6</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T22" s="14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="14">
+      <c r="G23" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="36">
         <v>21</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="49" t="s">
-        <v>298</v>
+      <c r="J23" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>69</v>
@@ -2919,7 +2827,7 @@
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="34" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>19</v>
@@ -2928,16 +2836,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2945,27 +2853,27 @@
         <v>68</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="G24" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24" s="36">
         <v>22</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="49" t="s">
-        <v>255</v>
+      <c r="J24" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>69</v>
@@ -2978,7 +2886,7 @@
       </c>
       <c r="N24" s="14"/>
       <c r="O24" s="34" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="P24" s="14" t="s">
         <v>19</v>
@@ -2987,16 +2895,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3004,29 +2912,29 @@
         <v>68</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="H25" s="14">
+      <c r="G25" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="36">
         <v>23</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="49" t="s">
-        <v>256</v>
+      <c r="J25" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>69</v>
@@ -3039,7 +2947,7 @@
       </c>
       <c r="N25" s="14"/>
       <c r="O25" s="20" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>19</v>
@@ -3048,16 +2956,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S25" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3065,27 +2973,27 @@
         <v>68</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="H26" s="14">
+      <c r="G26" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="H26" s="36">
         <v>24</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>257</v>
+      <c r="I26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>69</v>
@@ -3098,7 +3006,7 @@
         <v>35</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>19</v>
@@ -3107,16 +3015,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3124,29 +3032,29 @@
         <v>68</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="14">
+      <c r="G27" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="36">
         <v>25</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>112</v>
+      <c r="I27" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>70</v>
@@ -3159,19 +3067,19 @@
         <v>19</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3179,29 +3087,29 @@
         <v>68</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="14">
+      <c r="G28" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" s="36">
         <v>26</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="48" t="s">
-        <v>189</v>
+      <c r="J28" s="36" t="s">
+        <v>293</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>69</v>
@@ -3214,7 +3122,7 @@
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="34" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>19</v>
@@ -3223,16 +3131,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3240,29 +3148,29 @@
         <v>68</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H29" s="14">
+      <c r="G29" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" s="36">
         <v>27</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="48" t="s">
-        <v>258</v>
+      <c r="J29" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>69</v>
@@ -3275,7 +3183,7 @@
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="20" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>20</v>
@@ -3284,46 +3192,46 @@
         <v>6</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="270" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="H30" s="14">
+      <c r="G30" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="36">
         <v>28</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>194</v>
+      <c r="I30" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>294</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>69</v>
@@ -3336,7 +3244,7 @@
         <v>46</v>
       </c>
       <c r="O30" s="36" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>19</v>
@@ -3345,16 +3253,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3362,29 +3270,29 @@
         <v>68</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F31" s="14"/>
-      <c r="G31" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="H31" s="14">
+      <c r="G31" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" s="36">
         <v>29</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="48" t="s">
-        <v>259</v>
+      <c r="J31" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>69</v>
@@ -3397,7 +3305,7 @@
       </c>
       <c r="N31" s="34"/>
       <c r="O31" s="34" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>19</v>
@@ -3406,16 +3314,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S31" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="U31" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3423,29 +3331,29 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="14">
+      <c r="G32" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="36">
         <v>30</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="48" t="s">
-        <v>199</v>
+      <c r="J32" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>69</v>
@@ -3458,7 +3366,7 @@
       </c>
       <c r="N32" s="14"/>
       <c r="O32" s="34" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="P32" s="14" t="s">
         <v>19</v>
@@ -3467,16 +3375,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3484,29 +3392,29 @@
         <v>68</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="14">
+        <v>154</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="36">
         <v>31</v>
       </c>
-      <c r="I33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>196</v>
+      <c r="I33" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>69</v>
@@ -3519,7 +3427,7 @@
         <v>38</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>19</v>
@@ -3528,16 +3436,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3545,29 +3453,29 @@
         <v>68</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="H34" s="14">
+        <v>155</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" s="36">
         <v>32</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="48" t="s">
-        <v>202</v>
+      <c r="J34" s="36" t="s">
+        <v>296</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>69</v>
@@ -3580,7 +3488,7 @@
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="P34" s="11" t="s">
         <v>19</v>
@@ -3589,16 +3497,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3606,29 +3514,29 @@
         <v>68</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="14">
+      <c r="G35" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="36">
         <v>33</v>
       </c>
-      <c r="I35" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>197</v>
+      <c r="I35" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>69</v>
@@ -3641,7 +3549,7 @@
         <v>42</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>19</v>
@@ -3650,16 +3558,16 @@
         <v>6</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3667,29 +3575,29 @@
         <v>68</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="G36" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="36">
         <v>34</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="50" t="s">
-        <v>299</v>
+      <c r="J36" s="36" t="s">
+        <v>250</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>69</v>
@@ -3702,7 +3610,7 @@
       </c>
       <c r="N36" s="14"/>
       <c r="O36" s="25" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>19</v>
@@ -3711,16 +3619,16 @@
         <v>6</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3728,29 +3636,29 @@
         <v>68</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="H37" s="14">
+      <c r="G37" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="36">
         <v>35</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="48" t="s">
-        <v>260</v>
+      <c r="J37" s="36" t="s">
+        <v>229</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>69</v>
@@ -3763,7 +3671,7 @@
       </c>
       <c r="N37" s="14"/>
       <c r="O37" s="20" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="P37" s="14" t="s">
         <v>19</v>
@@ -3772,16 +3680,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="U37" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3789,29 +3697,29 @@
         <v>68</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="H38" s="14">
+      <c r="G38" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" s="36">
         <v>36</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="48" t="s">
-        <v>210</v>
+      <c r="J38" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>69</v>
@@ -3824,7 +3732,7 @@
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="34" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="P38" s="14" t="s">
         <v>19</v>
@@ -3833,16 +3741,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S38" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="U38" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3850,29 +3758,29 @@
         <v>68</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H39" s="14">
+      <c r="G39" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="36">
         <v>37</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="48" t="s">
-        <v>208</v>
+      <c r="J39" s="36" t="s">
+        <v>297</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>70</v>
@@ -3885,19 +3793,19 @@
         <v>19</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="R39" s="14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="S39" s="14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3905,29 +3813,29 @@
         <v>68</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="H40" s="14">
+      <c r="G40" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" s="36">
         <v>38</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="48" t="s">
-        <v>300</v>
+      <c r="J40" s="36" t="s">
+        <v>251</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>69</v>
@@ -3940,7 +3848,7 @@
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="34" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="P40" s="14" t="s">
         <v>19</v>
@@ -3949,16 +3857,16 @@
         <v>6</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T40" s="17" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="U40" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -3966,29 +3874,29 @@
         <v>68</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="H41" s="14">
+      <c r="G41" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="H41" s="36">
         <v>39</v>
       </c>
-      <c r="I41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="48" t="s">
-        <v>301</v>
+      <c r="I41" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>298</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>69</v>
@@ -4001,7 +3909,7 @@
         <v>39</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>19</v>
@@ -4010,16 +3918,16 @@
         <v>6</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="S41" s="16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="U41" s="16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -4027,29 +3935,29 @@
         <v>68</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="H42" s="14">
+      <c r="G42" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="36">
         <v>40</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="48" t="s">
-        <v>302</v>
+      <c r="J42" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>69</v>
@@ -4062,7 +3970,7 @@
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="P42" s="14" t="s">
         <v>19</v>
@@ -4071,16 +3979,16 @@
         <v>6</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="U42" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -4088,27 +3996,27 @@
         <v>68</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="29"/>
-      <c r="G43" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="H43" s="14">
+      <c r="G43" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="H43" s="36">
         <v>41</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="48" t="s">
-        <v>231</v>
+      <c r="J43" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>69</v>
@@ -4121,7 +4029,7 @@
       </c>
       <c r="N43" s="28"/>
       <c r="O43" s="34" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="P43" s="14" t="s">
         <v>19</v>
@@ -4130,16 +4038,16 @@
         <v>6</v>
       </c>
       <c r="R43" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S43" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -4147,27 +4055,27 @@
         <v>68</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
-      <c r="G44" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="H44" s="14">
+      <c r="G44" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="36">
         <v>42</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="48" t="s">
-        <v>107</v>
+      <c r="J44" s="36" t="s">
+        <v>300</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>69</v>
@@ -4180,7 +4088,7 @@
       </c>
       <c r="N44" s="28"/>
       <c r="O44" s="34" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="P44" s="14" t="s">
         <v>19</v>
@@ -4189,44 +4097,44 @@
         <v>6</v>
       </c>
       <c r="R44" s="24" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S44" s="24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T44" s="24" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="U44" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="29"/>
-      <c r="G45" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="H45" s="14">
+      <c r="G45" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="H45" s="36">
         <v>43</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="49" t="s">
-        <v>215</v>
+      <c r="J45" s="36" t="s">
+        <v>301</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>69</v>
@@ -4239,7 +4147,7 @@
       </c>
       <c r="N45" s="25"/>
       <c r="O45" s="25" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="P45" s="24" t="s">
         <v>19</v>
@@ -4248,16 +4156,16 @@
         <v>6</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="U45" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -4265,27 +4173,27 @@
         <v>68</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="29"/>
-      <c r="G46" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="H46" s="14">
+      <c r="G46" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="36">
         <v>44</v>
       </c>
-      <c r="I46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="49" t="s">
-        <v>303</v>
+      <c r="I46" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>253</v>
       </c>
       <c r="K46" s="24" t="s">
         <v>69</v>
@@ -4298,7 +4206,7 @@
       </c>
       <c r="N46" s="24"/>
       <c r="O46" s="25" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="P46" s="24" t="s">
         <v>19</v>
@@ -4307,16 +4215,16 @@
         <v>6</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -4324,27 +4232,27 @@
         <v>68</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E47" s="34"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="36">
         <v>45</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="49" t="s">
-        <v>218</v>
+      <c r="J47" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="K47" s="24" t="s">
         <v>69</v>
@@ -4367,27 +4275,27 @@
         <v>68</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E48" s="34"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="36">
         <v>46</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="49" t="s">
-        <v>304</v>
+      <c r="J48" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="K48" s="24" t="s">
         <v>69</v>
@@ -4400,7 +4308,7 @@
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="23" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="P48" s="24" t="s">
         <v>19</v>
@@ -4409,44 +4317,44 @@
         <v>6</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S48" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="U48" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E49" s="34"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="H49" s="14">
+      <c r="G49" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H49" s="36">
         <v>47</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="48" t="s">
-        <v>179</v>
+      <c r="J49" s="36" t="s">
+        <v>303</v>
       </c>
       <c r="K49" s="14" t="s">
         <v>69</v>
@@ -4459,7 +4367,7 @@
       </c>
       <c r="N49" s="14"/>
       <c r="O49" s="34" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>20</v>
@@ -4468,25 +4376,27 @@
         <v>6</v>
       </c>
       <c r="R49" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="S49" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -4495,13 +4405,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
